--- a/Box data/MIT 1K.xlsx
+++ b/Box data/MIT 1K.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$515</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="725">
   <si>
     <t>Debit/Credit Card in AFN</t>
   </si>
@@ -694,6 +694,1506 @@
   </si>
   <si>
     <t>FJD</t>
+  </si>
+  <si>
+    <t>8.782,00 €</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>8.942,00 €</t>
+  </si>
+  <si>
+    <t>9.028,00 €</t>
+  </si>
+  <si>
+    <t>5,951,900.00 Fr</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in GMD</t>
+  </si>
+  <si>
+    <t>506,970.00 D</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in GMD</t>
+  </si>
+  <si>
+    <t>27,317.00 ?</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>8.854,00 €</t>
+  </si>
+  <si>
+    <t>8.853,00 €</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>8.779,00 €</t>
+  </si>
+  <si>
+    <t>8.939,00 €</t>
+  </si>
+  <si>
+    <t>9.025,00 €</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in GHS</t>
+  </si>
+  <si>
+    <t>GH?49,933.00</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in GHS</t>
+  </si>
+  <si>
+    <t>American Express in GBP</t>
+  </si>
+  <si>
+    <t>£7,949.00</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in GBP</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in GBP</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in GIP</t>
+  </si>
+  <si>
+    <t>£8,071.00</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t>8.850,00 €</t>
+  </si>
+  <si>
+    <t>8.777,00 €</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>8.937,00 €</t>
+  </si>
+  <si>
+    <t>9.024,00 €</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in XCD</t>
+  </si>
+  <si>
+    <t>$28,500.00</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in XCD</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in GNF</t>
+  </si>
+  <si>
+    <t>95,498,000.00 FG</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in GYD</t>
+  </si>
+  <si>
+    <t>2,200,750.00 G$</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>Mastercard: Debit/Credit in GYD</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in HTG</t>
+  </si>
+  <si>
+    <t>727,400.00 G</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>Visa: Debit/Credit in HTG</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in HNL</t>
+  </si>
+  <si>
+    <t>L253,200.00</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in HNL</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Hong Kong Dollars (HKD)</t>
+  </si>
+  <si>
+    <t>HK$79,300.00</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>American Express in HKD</t>
+  </si>
+  <si>
+    <t>HK$79,650.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in HKD</t>
+  </si>
+  <si>
+    <t>HK$81,940.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in HKD</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in HUF</t>
+  </si>
+  <si>
+    <t>2.941.455,00 Ft</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in HUF</t>
+  </si>
+  <si>
+    <t>Bank Transfer from a Hungarian Forint (HUF) Account</t>
+  </si>
+  <si>
+    <t>2.885.210,00 Ft</t>
+  </si>
+  <si>
+    <t>2.885.189,00 Ft</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in ISK</t>
+  </si>
+  <si>
+    <t>kr1.189.600,00</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in ISK</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Indian Rupees</t>
+  </si>
+  <si>
+    <t>?736,233.00</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in INR</t>
+  </si>
+  <si>
+    <t>?762,145.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in INR</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Indonesian Rupiah (IDR)</t>
+  </si>
+  <si>
+    <t>Rp151.350.000,00</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in IDR</t>
+  </si>
+  <si>
+    <t>Rp156.300.000,00</t>
+  </si>
+  <si>
+    <t>UnionPay Card in IDR</t>
+  </si>
+  <si>
+    <t>Rp153.710.000,00</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>8.776,00 €</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>8.936,00 €</t>
+  </si>
+  <si>
+    <t>9.022,00 €</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Israeli Shekels (ILS)</t>
+  </si>
+  <si>
+    <t>?36,552.00</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in ILS</t>
+  </si>
+  <si>
+    <t>?37,746.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in ILS</t>
+  </si>
+  <si>
+    <t>8.772,00 €</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>8.932,00 €</t>
+  </si>
+  <si>
+    <t>9.018,00 €</t>
+  </si>
+  <si>
+    <t>8.846,00 €</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in JMD</t>
+  </si>
+  <si>
+    <t>J$1,435,500.00</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in JMD</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Japanese Yen (JPY)</t>
+  </si>
+  <si>
+    <t>¥1,146,100</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>American Express in JPY</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in JPY</t>
+  </si>
+  <si>
+    <t>¥1,174,500</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in JPY</t>
+  </si>
+  <si>
+    <t>UnionPay Card in JPY</t>
+  </si>
+  <si>
+    <t>¥1,155,000</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in JOD</t>
+  </si>
+  <si>
+    <t>?.?7,472.00</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in JOD</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in KZT</t>
+  </si>
+  <si>
+    <t>4,002,500.00 KZT</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>UnionPay Card in KZT</t>
+  </si>
+  <si>
+    <t>3,936,200.00 KZT</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in KES</t>
+  </si>
+  <si>
+    <t>KSh1,061,069.00</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in KES</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in South Korean Won (KRW)</t>
+  </si>
+  <si>
+    <t>?11,407,000.00</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in KRW</t>
+  </si>
+  <si>
+    <t>?11,858,000.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in KRW</t>
+  </si>
+  <si>
+    <t>UnionPay Card in KRW</t>
+  </si>
+  <si>
+    <t>?11,662,000.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in KWD</t>
+  </si>
+  <si>
+    <t>?.?3,194.000</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in KWD</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in KGS</t>
+  </si>
+  <si>
+    <t>730,970.00 ??</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>8.771,00 €</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>8.931,00 €</t>
+  </si>
+  <si>
+    <t>9.017,00 €</t>
+  </si>
+  <si>
+    <t>8.845,00 €</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in LBP</t>
+  </si>
+  <si>
+    <t>£15,885,143.00</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>8.770,00 €</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>8.930,00 €</t>
+  </si>
+  <si>
+    <t>9.016,00 €</t>
+  </si>
+  <si>
+    <t>8.844,00 €</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Malaysian Ringgit (MYR)</t>
+  </si>
+  <si>
+    <t>RM42,340.00</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in MYR</t>
+  </si>
+  <si>
+    <t>RM43,730.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in MYR</t>
+  </si>
+  <si>
+    <t>UnionPay Card in MYR</t>
+  </si>
+  <si>
+    <t>RM43,000.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in MVR</t>
+  </si>
+  <si>
+    <t>162,940.00 Rf</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MVR</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in MVR</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in MUR</t>
+  </si>
+  <si>
+    <t>?361,989.00</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in MUR</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Mauritian Rupee (MUR)</t>
+  </si>
+  <si>
+    <t>?350,539.00</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Mexican Pesos (MXN)</t>
+  </si>
+  <si>
+    <t>$199,073.00</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in MXN</t>
+  </si>
+  <si>
+    <t>$202,429.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in MXN</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in MDL</t>
+  </si>
+  <si>
+    <t>176,400.00 MDL</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>8.841,00 €</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>8.927,00 €</t>
+  </si>
+  <si>
+    <t>9.013,00 €</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in MNT</t>
+  </si>
+  <si>
+    <t>26,166,000.00 ?</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>8.840,00 €</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>8.926,00 €</t>
+  </si>
+  <si>
+    <t>9.012,00 €</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in MAD</t>
+  </si>
+  <si>
+    <t>99,225.00 ?.?.</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in MAD</t>
+  </si>
+  <si>
+    <t>MTn635.400,00</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MZN</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in MMK</t>
+  </si>
+  <si>
+    <t>16,393,000.00 K</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in NAD</t>
+  </si>
+  <si>
+    <t>158,971.00 N$</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>Mastercard: Debit/Credit in NAD</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in ZAR</t>
+  </si>
+  <si>
+    <t>R158,221.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in ZAR</t>
+  </si>
+  <si>
+    <t>R155,211.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in NPR</t>
+  </si>
+  <si>
+    <t>?1,210,920.00</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in NPR</t>
+  </si>
+  <si>
+    <t>8.833,00 €</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>8.759,00 €</t>
+  </si>
+  <si>
+    <t>8.918,00 €</t>
+  </si>
+  <si>
+    <t>9.004,00 €</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in New Zealand Dollar (NZD)</t>
+  </si>
+  <si>
+    <t>$15,684.00</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in NZD</t>
+  </si>
+  <si>
+    <t>$16,029.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in NZD</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in NIO</t>
+  </si>
+  <si>
+    <t>336,600.00 C$</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in NIO</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in XOF</t>
+  </si>
+  <si>
+    <t>5,937,400.00 CFA</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>Online Bank Transfer in NGN</t>
+  </si>
+  <si>
+    <t>3,840,426.00 ?</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in NGN</t>
+  </si>
+  <si>
+    <t>8.835,00 €</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Norwegian Krone (NOK)</t>
+  </si>
+  <si>
+    <t>kr85.821,00</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in NOK</t>
+  </si>
+  <si>
+    <t>kr86.650,00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in NOK</t>
+  </si>
+  <si>
+    <t>American Express in NOK</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in OMR</t>
+  </si>
+  <si>
+    <t>?.?.4,052.000</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in OMR</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in PKR</t>
+  </si>
+  <si>
+    <t>?1,299,600.00</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in PKR</t>
+  </si>
+  <si>
+    <t>UnionPay Card in PKR</t>
+  </si>
+  <si>
+    <t>?1,278,050.00</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in PGK</t>
+  </si>
+  <si>
+    <t>34,473.00 K</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>Visa: Debit/Credit in PGK</t>
+  </si>
+  <si>
+    <t>$15,596.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in PYG</t>
+  </si>
+  <si>
+    <t>?61,426,500.00</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in PYG</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in PEN</t>
+  </si>
+  <si>
+    <t>S/.35,120.00</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in PEN</t>
+  </si>
+  <si>
+    <t>£7,869.00</t>
+  </si>
+  <si>
+    <t>8.837,00 €</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in PHP</t>
+  </si>
+  <si>
+    <t>?567,858.00</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in PHP</t>
+  </si>
+  <si>
+    <t>UnionPay Card in PHP</t>
+  </si>
+  <si>
+    <t>?558,443.00</t>
+  </si>
+  <si>
+    <t>Bank Transfer from a Polish Z?oty (PLN) Account</t>
+  </si>
+  <si>
+    <t>38,221.00 z?</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in PLN</t>
+  </si>
+  <si>
+    <t>38,966.00 z?</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in PLN</t>
+  </si>
+  <si>
+    <t>8.763,00 €</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>8.923,00 €</t>
+  </si>
+  <si>
+    <t>9.009,00 €</t>
+  </si>
+  <si>
+    <t>8.838,00 €</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>$13,472.00</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Qatari Riyal (QAR)</t>
+  </si>
+  <si>
+    <t>37,449.00 ?.?</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in QAR</t>
+  </si>
+  <si>
+    <t>38,357.00 ?.?</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in QAR</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Romanian Leu (RON)</t>
+  </si>
+  <si>
+    <t>RON40.604,00</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in RON</t>
+  </si>
+  <si>
+    <t>RON41.930,00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in RON</t>
+  </si>
+  <si>
+    <t>RON41.129,00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in RUB</t>
+  </si>
+  <si>
+    <t>732.578,00 ???</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in RUB</t>
+  </si>
+  <si>
+    <t>8.839,00 €</t>
+  </si>
+  <si>
+    <t>£7,870.00</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in RWF</t>
+  </si>
+  <si>
+    <t>9,257,600.00 FRw</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Saudi Riyal (SAR)</t>
+  </si>
+  <si>
+    <t>?.?38,266.00</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in SAR</t>
+  </si>
+  <si>
+    <t>?.?39,516.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in SAR</t>
+  </si>
+  <si>
+    <t>5,941,900.00 CFA</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in RSD</t>
+  </si>
+  <si>
+    <t>???1,072,800.00</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Mastercard: Debit/Credit in RSD</t>
+  </si>
+  <si>
+    <t>142,762.00 ?</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Singapore Dollar(SGD)</t>
+  </si>
+  <si>
+    <t>S$14,003.00</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>American Express in SGD</t>
+  </si>
+  <si>
+    <t>S$14,111.00</t>
+  </si>
+  <si>
+    <t>S$14,422.00</t>
+  </si>
+  <si>
+    <t>8.767,00 €</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>8.765,00 €</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>8.925,00 €</t>
+  </si>
+  <si>
+    <t>9.011,00 €</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in SOS</t>
+  </si>
+  <si>
+    <t>6,077,700.00 Sh</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Bank Transfer in South African Rand (ZAR)</t>
+  </si>
+  <si>
+    <t>R155,025.00</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>R157,625.00</t>
+  </si>
+  <si>
+    <t>American Express in ZAR</t>
+  </si>
+  <si>
+    <t>8.766,00 €</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in LKR</t>
+  </si>
+  <si>
+    <t>1,709,800.00 ?</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in LKR</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in SRD</t>
+  </si>
+  <si>
+    <t>78,571.00 $</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in SRD</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Swedish Krona (SEK)</t>
+  </si>
+  <si>
+    <t>kr92,887.00</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in SEK</t>
+  </si>
+  <si>
+    <t>kr93,784.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in SEK</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Swiss Francs (CHF)</t>
+  </si>
+  <si>
+    <t>Fr10,012.00</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in CHF</t>
+  </si>
+  <si>
+    <t>Fr10,206.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in CHF</t>
+  </si>
+  <si>
+    <t>Fr10,017.00</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Fr10,211.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in TWD</t>
+  </si>
+  <si>
+    <t>324,668.00 NT$</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in TWD</t>
+  </si>
+  <si>
+    <t>£7,871.00</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in TJS</t>
+  </si>
+  <si>
+    <t>99,294.00 TJS</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in TZS</t>
+  </si>
+  <si>
+    <t>Sh24,058,700.00</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>Bank Transfer in Thai Baht (THB)</t>
+  </si>
+  <si>
+    <t>?336,120.00</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in THB</t>
+  </si>
+  <si>
+    <t>?345,683.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in THB</t>
+  </si>
+  <si>
+    <t>UnionPay Card in THB</t>
+  </si>
+  <si>
+    <t>?339,951.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in TTD</t>
+  </si>
+  <si>
+    <t>70,886.00 TT$</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>Mastercard: Debit/Credit in TTD</t>
+  </si>
+  <si>
+    <t>$13,475.00</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in TND</t>
+  </si>
+  <si>
+    <t>29,239.000 dt</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in TND</t>
+  </si>
+  <si>
+    <t>8.843,00 €</t>
+  </si>
+  <si>
+    <t>£7,874.00</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in Turkish Lira (TRY)</t>
+  </si>
+  <si>
+    <t>66,291.00 TL</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in TRY</t>
+  </si>
+  <si>
+    <t>67,932.00 TL</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in TRY</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in UGX</t>
+  </si>
+  <si>
+    <t>39,815,000.00 USh</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in UAH</t>
+  </si>
+  <si>
+    <t>297,747.00 ?</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>Domestic Bank Transfer in US Dollars (USD)</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>$13,479.00</t>
+  </si>
+  <si>
+    <t>MasterCard: Debit/Credit in UYU</t>
+  </si>
+  <si>
+    <t>$342.400,00</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>VISA: Debit/Credit in UYU</t>
+  </si>
+  <si>
+    <t>Debit/Credit Card in UZS</t>
+  </si>
+  <si>
+    <t>82,846,000.00 ??</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>R155,098.00</t>
+  </si>
+  <si>
+    <t>R155,100.00</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,6 +5787,7066 @@
       </c>
       <c r="F162">
         <v>862.09500000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" t="s">
+        <v>225</v>
+      </c>
+      <c r="C163" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163" t="s">
+        <v>194</v>
+      </c>
+      <c r="E163" t="s">
+        <v>197</v>
+      </c>
+      <c r="F163">
+        <v>861.08299999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" t="s">
+        <v>226</v>
+      </c>
+      <c r="D164" t="s">
+        <v>194</v>
+      </c>
+      <c r="E164" t="s">
+        <v>197</v>
+      </c>
+      <c r="F164">
+        <v>861.08299999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" t="s">
+        <v>226</v>
+      </c>
+      <c r="D165" t="s">
+        <v>194</v>
+      </c>
+      <c r="E165" t="s">
+        <v>197</v>
+      </c>
+      <c r="F165">
+        <v>861.08299999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>227</v>
+      </c>
+      <c r="C166" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" t="s">
+        <v>194</v>
+      </c>
+      <c r="E166" t="s">
+        <v>197</v>
+      </c>
+      <c r="F166">
+        <v>861.18299999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>228</v>
+      </c>
+      <c r="C167" t="s">
+        <v>226</v>
+      </c>
+      <c r="D167" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" t="s">
+        <v>197</v>
+      </c>
+      <c r="F167">
+        <v>861.18299999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" t="s">
+        <v>229</v>
+      </c>
+      <c r="C168" t="s">
+        <v>230</v>
+      </c>
+      <c r="D168" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168" t="s">
+        <v>215</v>
+      </c>
+      <c r="F168" s="1">
+        <v>564906.77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E169" t="s">
+        <v>215</v>
+      </c>
+      <c r="F169" s="1">
+        <v>564906.77</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" t="s">
+        <v>230</v>
+      </c>
+      <c r="D170" t="s">
+        <v>194</v>
+      </c>
+      <c r="E170" t="s">
+        <v>196</v>
+      </c>
+      <c r="F170">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>231</v>
+      </c>
+      <c r="B171" t="s">
+        <v>232</v>
+      </c>
+      <c r="C171" t="s">
+        <v>233</v>
+      </c>
+      <c r="D171" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" t="s">
+        <v>234</v>
+      </c>
+      <c r="F171" s="1">
+        <v>48072.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" t="s">
+        <v>233</v>
+      </c>
+      <c r="D172" t="s">
+        <v>194</v>
+      </c>
+      <c r="E172" t="s">
+        <v>234</v>
+      </c>
+      <c r="F172" s="1">
+        <v>48072.21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" t="s">
+        <v>233</v>
+      </c>
+      <c r="D173" t="s">
+        <v>194</v>
+      </c>
+      <c r="E173" t="s">
+        <v>196</v>
+      </c>
+      <c r="F173">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>68</v>
+      </c>
+      <c r="B174" t="s">
+        <v>236</v>
+      </c>
+      <c r="C174" t="s">
+        <v>237</v>
+      </c>
+      <c r="D174" t="s">
+        <v>194</v>
+      </c>
+      <c r="E174" t="s">
+        <v>238</v>
+      </c>
+      <c r="F174" s="1">
+        <v>2592.19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>67</v>
+      </c>
+      <c r="B175" t="s">
+        <v>236</v>
+      </c>
+      <c r="C175" t="s">
+        <v>237</v>
+      </c>
+      <c r="D175" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" t="s">
+        <v>238</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2592.19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>85</v>
+      </c>
+      <c r="C176" t="s">
+        <v>237</v>
+      </c>
+      <c r="D176" t="s">
+        <v>194</v>
+      </c>
+      <c r="E176" t="s">
+        <v>196</v>
+      </c>
+      <c r="F176">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>239</v>
+      </c>
+      <c r="C177" t="s">
+        <v>237</v>
+      </c>
+      <c r="D177" t="s">
+        <v>194</v>
+      </c>
+      <c r="E177" t="s">
+        <v>197</v>
+      </c>
+      <c r="F177">
+        <v>861.11599999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" t="s">
+        <v>241</v>
+      </c>
+      <c r="D178" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" t="s">
+        <v>197</v>
+      </c>
+      <c r="F178">
+        <v>861.01800000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>242</v>
+      </c>
+      <c r="C179" t="s">
+        <v>241</v>
+      </c>
+      <c r="D179" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179" t="s">
+        <v>197</v>
+      </c>
+      <c r="F179">
+        <v>861.01800000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" t="s">
+        <v>194</v>
+      </c>
+      <c r="E180" t="s">
+        <v>197</v>
+      </c>
+      <c r="F180">
+        <v>861.01800000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>243</v>
+      </c>
+      <c r="C181" t="s">
+        <v>241</v>
+      </c>
+      <c r="D181" t="s">
+        <v>194</v>
+      </c>
+      <c r="E181" t="s">
+        <v>197</v>
+      </c>
+      <c r="F181">
+        <v>860.90499999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" t="s">
+        <v>243</v>
+      </c>
+      <c r="C182" t="s">
+        <v>241</v>
+      </c>
+      <c r="D182" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" t="s">
+        <v>197</v>
+      </c>
+      <c r="F182">
+        <v>860.90499999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>244</v>
+      </c>
+      <c r="C183" t="s">
+        <v>241</v>
+      </c>
+      <c r="D183" t="s">
+        <v>194</v>
+      </c>
+      <c r="E183" t="s">
+        <v>197</v>
+      </c>
+      <c r="F183">
+        <v>860.90499999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>245</v>
+      </c>
+      <c r="B184" t="s">
+        <v>246</v>
+      </c>
+      <c r="C184" t="s">
+        <v>247</v>
+      </c>
+      <c r="D184" t="s">
+        <v>194</v>
+      </c>
+      <c r="E184" t="s">
+        <v>248</v>
+      </c>
+      <c r="F184" s="1">
+        <v>4740.51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>249</v>
+      </c>
+      <c r="B185" t="s">
+        <v>246</v>
+      </c>
+      <c r="C185" t="s">
+        <v>247</v>
+      </c>
+      <c r="D185" t="s">
+        <v>194</v>
+      </c>
+      <c r="E185" t="s">
+        <v>248</v>
+      </c>
+      <c r="F185" s="1">
+        <v>4740.51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>85</v>
+      </c>
+      <c r="C186" t="s">
+        <v>247</v>
+      </c>
+      <c r="D186" t="s">
+        <v>194</v>
+      </c>
+      <c r="E186" t="s">
+        <v>196</v>
+      </c>
+      <c r="F186">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187" t="s">
+        <v>252</v>
+      </c>
+      <c r="D187" t="s">
+        <v>194</v>
+      </c>
+      <c r="E187" t="s">
+        <v>199</v>
+      </c>
+      <c r="F187">
+        <v>765.82899999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" t="s">
+        <v>251</v>
+      </c>
+      <c r="C188" t="s">
+        <v>252</v>
+      </c>
+      <c r="D188" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" t="s">
+        <v>199</v>
+      </c>
+      <c r="F188">
+        <v>765.82899999999995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>254</v>
+      </c>
+      <c r="B189" t="s">
+        <v>251</v>
+      </c>
+      <c r="C189" t="s">
+        <v>252</v>
+      </c>
+      <c r="D189" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" t="s">
+        <v>199</v>
+      </c>
+      <c r="F189">
+        <v>765.62099999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>255</v>
+      </c>
+      <c r="B190" t="s">
+        <v>256</v>
+      </c>
+      <c r="C190" t="s">
+        <v>252</v>
+      </c>
+      <c r="D190" t="s">
+        <v>194</v>
+      </c>
+      <c r="E190" t="s">
+        <v>257</v>
+      </c>
+      <c r="F190">
+        <v>765.62099999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" t="s">
+        <v>252</v>
+      </c>
+      <c r="D191" t="s">
+        <v>194</v>
+      </c>
+      <c r="E191" t="s">
+        <v>197</v>
+      </c>
+      <c r="F191">
+        <v>860.697</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" t="s">
+        <v>252</v>
+      </c>
+      <c r="D192" t="s">
+        <v>194</v>
+      </c>
+      <c r="E192" t="s">
+        <v>196</v>
+      </c>
+      <c r="F192">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" t="s">
+        <v>259</v>
+      </c>
+      <c r="C193" t="s">
+        <v>260</v>
+      </c>
+      <c r="D193" t="s">
+        <v>194</v>
+      </c>
+      <c r="E193" t="s">
+        <v>197</v>
+      </c>
+      <c r="F193">
+        <v>860.702</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>261</v>
+      </c>
+      <c r="C194" t="s">
+        <v>260</v>
+      </c>
+      <c r="D194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+      <c r="F194">
+        <v>860.702</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" t="s">
+        <v>260</v>
+      </c>
+      <c r="D195" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" t="s">
+        <v>197</v>
+      </c>
+      <c r="F195">
+        <v>860.702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" t="s">
+        <v>260</v>
+      </c>
+      <c r="D196" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196" t="s">
+        <v>197</v>
+      </c>
+      <c r="F196">
+        <v>860.76900000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s">
+        <v>262</v>
+      </c>
+      <c r="C197" t="s">
+        <v>260</v>
+      </c>
+      <c r="D197" t="s">
+        <v>194</v>
+      </c>
+      <c r="E197" t="s">
+        <v>197</v>
+      </c>
+      <c r="F197">
+        <v>860.76900000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>263</v>
+      </c>
+      <c r="B198" t="s">
+        <v>264</v>
+      </c>
+      <c r="C198" t="s">
+        <v>265</v>
+      </c>
+      <c r="D198" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" t="s">
+        <v>196</v>
+      </c>
+      <c r="F198">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>266</v>
+      </c>
+      <c r="B199" t="s">
+        <v>264</v>
+      </c>
+      <c r="C199" t="s">
+        <v>265</v>
+      </c>
+      <c r="D199" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" t="s">
+        <v>196</v>
+      </c>
+      <c r="F199">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="s">
+        <v>265</v>
+      </c>
+      <c r="D200" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" t="s">
+        <v>196</v>
+      </c>
+      <c r="F200">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>267</v>
+      </c>
+      <c r="B201" t="s">
+        <v>268</v>
+      </c>
+      <c r="C201" t="s">
+        <v>269</v>
+      </c>
+      <c r="D201" t="s">
+        <v>194</v>
+      </c>
+      <c r="E201" t="s">
+        <v>270</v>
+      </c>
+      <c r="F201" s="1">
+        <v>9063012.2300000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>85</v>
+      </c>
+      <c r="C202" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" t="s">
+        <v>196</v>
+      </c>
+      <c r="F202">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>271</v>
+      </c>
+      <c r="B203" t="s">
+        <v>272</v>
+      </c>
+      <c r="C203" t="s">
+        <v>273</v>
+      </c>
+      <c r="D203" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" t="s">
+        <v>274</v>
+      </c>
+      <c r="F203" s="1">
+        <v>208851.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>275</v>
+      </c>
+      <c r="B204" t="s">
+        <v>272</v>
+      </c>
+      <c r="C204" t="s">
+        <v>273</v>
+      </c>
+      <c r="D204" t="s">
+        <v>194</v>
+      </c>
+      <c r="E204" t="s">
+        <v>274</v>
+      </c>
+      <c r="F204" s="1">
+        <v>208851.02</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" t="s">
+        <v>273</v>
+      </c>
+      <c r="D205" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" t="s">
+        <v>196</v>
+      </c>
+      <c r="F205">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>276</v>
+      </c>
+      <c r="B206" t="s">
+        <v>277</v>
+      </c>
+      <c r="C206" t="s">
+        <v>278</v>
+      </c>
+      <c r="D206" t="s">
+        <v>194</v>
+      </c>
+      <c r="E206" t="s">
+        <v>279</v>
+      </c>
+      <c r="F206" s="1">
+        <v>69055.08</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>280</v>
+      </c>
+      <c r="B207" t="s">
+        <v>277</v>
+      </c>
+      <c r="C207" t="s">
+        <v>278</v>
+      </c>
+      <c r="D207" t="s">
+        <v>194</v>
+      </c>
+      <c r="E207" t="s">
+        <v>279</v>
+      </c>
+      <c r="F207" s="1">
+        <v>69055.08</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>85</v>
+      </c>
+      <c r="C208" t="s">
+        <v>278</v>
+      </c>
+      <c r="D208" t="s">
+        <v>194</v>
+      </c>
+      <c r="E208" t="s">
+        <v>196</v>
+      </c>
+      <c r="F208">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>281</v>
+      </c>
+      <c r="B209" t="s">
+        <v>282</v>
+      </c>
+      <c r="C209" t="s">
+        <v>283</v>
+      </c>
+      <c r="D209" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" t="s">
+        <v>284</v>
+      </c>
+      <c r="F209" s="1">
+        <v>24025.13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>285</v>
+      </c>
+      <c r="B210" t="s">
+        <v>282</v>
+      </c>
+      <c r="C210" t="s">
+        <v>283</v>
+      </c>
+      <c r="D210" t="s">
+        <v>194</v>
+      </c>
+      <c r="E210" t="s">
+        <v>284</v>
+      </c>
+      <c r="F210" s="1">
+        <v>24025.13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" t="s">
+        <v>283</v>
+      </c>
+      <c r="D211" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" t="s">
+        <v>196</v>
+      </c>
+      <c r="F211">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" t="s">
+        <v>287</v>
+      </c>
+      <c r="C212" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" t="s">
+        <v>194</v>
+      </c>
+      <c r="E212" t="s">
+        <v>289</v>
+      </c>
+      <c r="F212" s="1">
+        <v>7849.63</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>290</v>
+      </c>
+      <c r="B213" t="s">
+        <v>291</v>
+      </c>
+      <c r="C213" t="s">
+        <v>288</v>
+      </c>
+      <c r="D213" t="s">
+        <v>194</v>
+      </c>
+      <c r="E213" t="s">
+        <v>289</v>
+      </c>
+      <c r="F213" s="1">
+        <v>7849.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>292</v>
+      </c>
+      <c r="B214" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" t="s">
+        <v>288</v>
+      </c>
+      <c r="D214" t="s">
+        <v>194</v>
+      </c>
+      <c r="E214" t="s">
+        <v>289</v>
+      </c>
+      <c r="F214" s="1">
+        <v>7849.63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>294</v>
+      </c>
+      <c r="B215" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" t="s">
+        <v>288</v>
+      </c>
+      <c r="D215" t="s">
+        <v>194</v>
+      </c>
+      <c r="E215" t="s">
+        <v>289</v>
+      </c>
+      <c r="F215" s="1">
+        <v>7849.63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>295</v>
+      </c>
+      <c r="B216" t="s">
+        <v>296</v>
+      </c>
+      <c r="C216" t="s">
+        <v>297</v>
+      </c>
+      <c r="D216" t="s">
+        <v>194</v>
+      </c>
+      <c r="E216" t="s">
+        <v>298</v>
+      </c>
+      <c r="F216" s="1">
+        <v>279189.62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>299</v>
+      </c>
+      <c r="B217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C217" t="s">
+        <v>297</v>
+      </c>
+      <c r="D217" t="s">
+        <v>194</v>
+      </c>
+      <c r="E217" t="s">
+        <v>298</v>
+      </c>
+      <c r="F217" s="1">
+        <v>279179.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>300</v>
+      </c>
+      <c r="B218" t="s">
+        <v>301</v>
+      </c>
+      <c r="C218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D218" t="s">
+        <v>194</v>
+      </c>
+      <c r="E218" t="s">
+        <v>298</v>
+      </c>
+      <c r="F218" s="1">
+        <v>279179.25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>302</v>
+      </c>
+      <c r="C219" t="s">
+        <v>297</v>
+      </c>
+      <c r="D219" t="s">
+        <v>194</v>
+      </c>
+      <c r="E219" t="s">
+        <v>298</v>
+      </c>
+      <c r="F219" s="1">
+        <v>279179.25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>303</v>
+      </c>
+      <c r="B220" t="s">
+        <v>304</v>
+      </c>
+      <c r="C220" t="s">
+        <v>305</v>
+      </c>
+      <c r="D220" t="s">
+        <v>194</v>
+      </c>
+      <c r="E220" t="s">
+        <v>306</v>
+      </c>
+      <c r="F220" s="1">
+        <v>112904.03</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>307</v>
+      </c>
+      <c r="B221" t="s">
+        <v>304</v>
+      </c>
+      <c r="C221" t="s">
+        <v>305</v>
+      </c>
+      <c r="D221" t="s">
+        <v>194</v>
+      </c>
+      <c r="E221" t="s">
+        <v>306</v>
+      </c>
+      <c r="F221" s="1">
+        <v>112920.46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>85</v>
+      </c>
+      <c r="C222" t="s">
+        <v>305</v>
+      </c>
+      <c r="D222" t="s">
+        <v>194</v>
+      </c>
+      <c r="E222" t="s">
+        <v>196</v>
+      </c>
+      <c r="F222">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>308</v>
+      </c>
+      <c r="B223" t="s">
+        <v>309</v>
+      </c>
+      <c r="C223" t="s">
+        <v>310</v>
+      </c>
+      <c r="D223" t="s">
+        <v>194</v>
+      </c>
+      <c r="E223" t="s">
+        <v>311</v>
+      </c>
+      <c r="F223" s="1">
+        <v>72312.45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>312</v>
+      </c>
+      <c r="B224" t="s">
+        <v>313</v>
+      </c>
+      <c r="C224" t="s">
+        <v>310</v>
+      </c>
+      <c r="D224" t="s">
+        <v>194</v>
+      </c>
+      <c r="E224" t="s">
+        <v>311</v>
+      </c>
+      <c r="F224" s="1">
+        <v>72312.84</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>314</v>
+      </c>
+      <c r="B225" t="s">
+        <v>313</v>
+      </c>
+      <c r="C225" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" t="s">
+        <v>194</v>
+      </c>
+      <c r="E225" t="s">
+        <v>311</v>
+      </c>
+      <c r="F225" s="1">
+        <v>72312.84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>315</v>
+      </c>
+      <c r="B226" t="s">
+        <v>316</v>
+      </c>
+      <c r="C226" t="s">
+        <v>317</v>
+      </c>
+      <c r="D226" t="s">
+        <v>194</v>
+      </c>
+      <c r="E226" t="s">
+        <v>318</v>
+      </c>
+      <c r="F226" s="1">
+        <v>14833132.52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>319</v>
+      </c>
+      <c r="B227" t="s">
+        <v>320</v>
+      </c>
+      <c r="C227" t="s">
+        <v>317</v>
+      </c>
+      <c r="D227" t="s">
+        <v>194</v>
+      </c>
+      <c r="E227" t="s">
+        <v>318</v>
+      </c>
+      <c r="F227" s="1">
+        <v>14833132.52</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>321</v>
+      </c>
+      <c r="B228" t="s">
+        <v>322</v>
+      </c>
+      <c r="C228" t="s">
+        <v>317</v>
+      </c>
+      <c r="D228" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228" t="s">
+        <v>318</v>
+      </c>
+      <c r="F228" s="1">
+        <v>14833132.52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C229" t="s">
+        <v>323</v>
+      </c>
+      <c r="D229" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229" t="s">
+        <v>196</v>
+      </c>
+      <c r="F229">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" t="s">
+        <v>324</v>
+      </c>
+      <c r="C230" t="s">
+        <v>325</v>
+      </c>
+      <c r="D230" t="s">
+        <v>194</v>
+      </c>
+      <c r="E230" t="s">
+        <v>197</v>
+      </c>
+      <c r="F230">
+        <v>860.63199999999995</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>326</v>
+      </c>
+      <c r="C231" t="s">
+        <v>325</v>
+      </c>
+      <c r="D231" t="s">
+        <v>194</v>
+      </c>
+      <c r="E231" t="s">
+        <v>197</v>
+      </c>
+      <c r="F231">
+        <v>860.63199999999995</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>326</v>
+      </c>
+      <c r="C232" t="s">
+        <v>325</v>
+      </c>
+      <c r="D232" t="s">
+        <v>194</v>
+      </c>
+      <c r="E232" t="s">
+        <v>197</v>
+      </c>
+      <c r="F232">
+        <v>860.63199999999995</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" t="s">
+        <v>326</v>
+      </c>
+      <c r="C233" t="s">
+        <v>325</v>
+      </c>
+      <c r="D233" t="s">
+        <v>194</v>
+      </c>
+      <c r="E233" t="s">
+        <v>197</v>
+      </c>
+      <c r="F233">
+        <v>860.67700000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" t="s">
+        <v>327</v>
+      </c>
+      <c r="C234" t="s">
+        <v>325</v>
+      </c>
+      <c r="D234" t="s">
+        <v>194</v>
+      </c>
+      <c r="E234" t="s">
+        <v>197</v>
+      </c>
+      <c r="F234">
+        <v>860.67700000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" t="s">
+        <v>258</v>
+      </c>
+      <c r="C235" t="s">
+        <v>325</v>
+      </c>
+      <c r="D235" t="s">
+        <v>194</v>
+      </c>
+      <c r="E235" t="s">
+        <v>197</v>
+      </c>
+      <c r="F235">
+        <v>860.67700000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>328</v>
+      </c>
+      <c r="B236" t="s">
+        <v>329</v>
+      </c>
+      <c r="C236" t="s">
+        <v>330</v>
+      </c>
+      <c r="D236" t="s">
+        <v>194</v>
+      </c>
+      <c r="E236" t="s">
+        <v>331</v>
+      </c>
+      <c r="F236" s="1">
+        <v>3580.73</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>332</v>
+      </c>
+      <c r="B237" t="s">
+        <v>333</v>
+      </c>
+      <c r="C237" t="s">
+        <v>330</v>
+      </c>
+      <c r="D237" t="s">
+        <v>194</v>
+      </c>
+      <c r="E237" t="s">
+        <v>331</v>
+      </c>
+      <c r="F237" s="1">
+        <v>3580.73</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>334</v>
+      </c>
+      <c r="B238" t="s">
+        <v>333</v>
+      </c>
+      <c r="C238" t="s">
+        <v>330</v>
+      </c>
+      <c r="D238" t="s">
+        <v>194</v>
+      </c>
+      <c r="E238" t="s">
+        <v>331</v>
+      </c>
+      <c r="F238" s="1">
+        <v>3580.79</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" t="s">
+        <v>335</v>
+      </c>
+      <c r="C239" t="s">
+        <v>336</v>
+      </c>
+      <c r="D239" t="s">
+        <v>194</v>
+      </c>
+      <c r="E239" t="s">
+        <v>197</v>
+      </c>
+      <c r="F239">
+        <v>860.55799999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>337</v>
+      </c>
+      <c r="C240" t="s">
+        <v>336</v>
+      </c>
+      <c r="D240" t="s">
+        <v>194</v>
+      </c>
+      <c r="E240" t="s">
+        <v>197</v>
+      </c>
+      <c r="F240">
+        <v>860.55799999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" t="s">
+        <v>337</v>
+      </c>
+      <c r="C241" t="s">
+        <v>336</v>
+      </c>
+      <c r="D241" t="s">
+        <v>194</v>
+      </c>
+      <c r="E241" t="s">
+        <v>197</v>
+      </c>
+      <c r="F241">
+        <v>860.32600000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>16</v>
+      </c>
+      <c r="B242" t="s">
+        <v>337</v>
+      </c>
+      <c r="C242" t="s">
+        <v>336</v>
+      </c>
+      <c r="D242" t="s">
+        <v>194</v>
+      </c>
+      <c r="E242" t="s">
+        <v>197</v>
+      </c>
+      <c r="F242">
+        <v>860.32600000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
+        <v>338</v>
+      </c>
+      <c r="C243" t="s">
+        <v>336</v>
+      </c>
+      <c r="D243" t="s">
+        <v>194</v>
+      </c>
+      <c r="E243" t="s">
+        <v>197</v>
+      </c>
+      <c r="F243">
+        <v>860.32600000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>339</v>
+      </c>
+      <c r="C244" t="s">
+        <v>336</v>
+      </c>
+      <c r="D244" t="s">
+        <v>194</v>
+      </c>
+      <c r="E244" t="s">
+        <v>197</v>
+      </c>
+      <c r="F244">
+        <v>860.32600000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>340</v>
+      </c>
+      <c r="B245" t="s">
+        <v>341</v>
+      </c>
+      <c r="C245" t="s">
+        <v>342</v>
+      </c>
+      <c r="D245" t="s">
+        <v>194</v>
+      </c>
+      <c r="E245" t="s">
+        <v>343</v>
+      </c>
+      <c r="F245" s="1">
+        <v>136233.20000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>344</v>
+      </c>
+      <c r="B246" t="s">
+        <v>341</v>
+      </c>
+      <c r="C246" t="s">
+        <v>342</v>
+      </c>
+      <c r="D246" t="s">
+        <v>194</v>
+      </c>
+      <c r="E246" t="s">
+        <v>343</v>
+      </c>
+      <c r="F246" s="1">
+        <v>136233.20000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>85</v>
+      </c>
+      <c r="C247" t="s">
+        <v>342</v>
+      </c>
+      <c r="D247" t="s">
+        <v>194</v>
+      </c>
+      <c r="E247" t="s">
+        <v>196</v>
+      </c>
+      <c r="F247">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>345</v>
+      </c>
+      <c r="B248" t="s">
+        <v>346</v>
+      </c>
+      <c r="C248" t="s">
+        <v>347</v>
+      </c>
+      <c r="D248" t="s">
+        <v>194</v>
+      </c>
+      <c r="E248" t="s">
+        <v>348</v>
+      </c>
+      <c r="F248" s="1">
+        <v>111446.92</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>349</v>
+      </c>
+      <c r="B249" t="s">
+        <v>346</v>
+      </c>
+      <c r="C249" t="s">
+        <v>347</v>
+      </c>
+      <c r="D249" t="s">
+        <v>194</v>
+      </c>
+      <c r="E249" t="s">
+        <v>348</v>
+      </c>
+      <c r="F249" s="1">
+        <v>111446.92</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>350</v>
+      </c>
+      <c r="B250" t="s">
+        <v>351</v>
+      </c>
+      <c r="C250" t="s">
+        <v>347</v>
+      </c>
+      <c r="D250" t="s">
+        <v>194</v>
+      </c>
+      <c r="E250" t="s">
+        <v>348</v>
+      </c>
+      <c r="F250" s="1">
+        <v>111442.65</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>352</v>
+      </c>
+      <c r="B251" t="s">
+        <v>351</v>
+      </c>
+      <c r="C251" t="s">
+        <v>347</v>
+      </c>
+      <c r="D251" t="s">
+        <v>194</v>
+      </c>
+      <c r="E251" t="s">
+        <v>348</v>
+      </c>
+      <c r="F251" s="1">
+        <v>111442.65</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>353</v>
+      </c>
+      <c r="B252" t="s">
+        <v>354</v>
+      </c>
+      <c r="C252" t="s">
+        <v>347</v>
+      </c>
+      <c r="D252" t="s">
+        <v>194</v>
+      </c>
+      <c r="E252" t="s">
+        <v>348</v>
+      </c>
+      <c r="F252" s="1">
+        <v>111442.65</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>355</v>
+      </c>
+      <c r="B253" t="s">
+        <v>356</v>
+      </c>
+      <c r="C253" t="s">
+        <v>357</v>
+      </c>
+      <c r="D253" t="s">
+        <v>194</v>
+      </c>
+      <c r="E253" t="s">
+        <v>358</v>
+      </c>
+      <c r="F253">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>359</v>
+      </c>
+      <c r="B254" t="s">
+        <v>356</v>
+      </c>
+      <c r="C254" t="s">
+        <v>357</v>
+      </c>
+      <c r="D254" t="s">
+        <v>194</v>
+      </c>
+      <c r="E254" t="s">
+        <v>358</v>
+      </c>
+      <c r="F254">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>85</v>
+      </c>
+      <c r="C255" t="s">
+        <v>357</v>
+      </c>
+      <c r="D255" t="s">
+        <v>194</v>
+      </c>
+      <c r="E255" t="s">
+        <v>196</v>
+      </c>
+      <c r="F255">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>360</v>
+      </c>
+      <c r="B256" t="s">
+        <v>361</v>
+      </c>
+      <c r="C256" t="s">
+        <v>362</v>
+      </c>
+      <c r="D256" t="s">
+        <v>194</v>
+      </c>
+      <c r="E256" t="s">
+        <v>363</v>
+      </c>
+      <c r="F256" s="1">
+        <v>379700.55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>364</v>
+      </c>
+      <c r="B257" t="s">
+        <v>365</v>
+      </c>
+      <c r="C257" t="s">
+        <v>362</v>
+      </c>
+      <c r="D257" t="s">
+        <v>194</v>
+      </c>
+      <c r="E257" t="s">
+        <v>363</v>
+      </c>
+      <c r="F257" s="1">
+        <v>379700.55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>85</v>
+      </c>
+      <c r="C258" t="s">
+        <v>362</v>
+      </c>
+      <c r="D258" t="s">
+        <v>194</v>
+      </c>
+      <c r="E258" t="s">
+        <v>196</v>
+      </c>
+      <c r="F258">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>366</v>
+      </c>
+      <c r="B259" t="s">
+        <v>367</v>
+      </c>
+      <c r="C259" t="s">
+        <v>368</v>
+      </c>
+      <c r="D259" t="s">
+        <v>194</v>
+      </c>
+      <c r="E259" t="s">
+        <v>369</v>
+      </c>
+      <c r="F259" s="1">
+        <v>100699.83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>370</v>
+      </c>
+      <c r="B260" t="s">
+        <v>367</v>
+      </c>
+      <c r="C260" t="s">
+        <v>368</v>
+      </c>
+      <c r="D260" t="s">
+        <v>194</v>
+      </c>
+      <c r="E260" t="s">
+        <v>369</v>
+      </c>
+      <c r="F260" s="1">
+        <v>100699.83</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>339</v>
+      </c>
+      <c r="C261" t="s">
+        <v>368</v>
+      </c>
+      <c r="D261" t="s">
+        <v>194</v>
+      </c>
+      <c r="E261" t="s">
+        <v>197</v>
+      </c>
+      <c r="F261">
+        <v>860.09699999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>85</v>
+      </c>
+      <c r="C262" t="s">
+        <v>368</v>
+      </c>
+      <c r="D262" t="s">
+        <v>194</v>
+      </c>
+      <c r="E262" t="s">
+        <v>196</v>
+      </c>
+      <c r="F262">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>371</v>
+      </c>
+      <c r="B263" t="s">
+        <v>372</v>
+      </c>
+      <c r="C263" t="s">
+        <v>373</v>
+      </c>
+      <c r="D263" t="s">
+        <v>194</v>
+      </c>
+      <c r="E263" t="s">
+        <v>374</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1125290.69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>375</v>
+      </c>
+      <c r="B264" t="s">
+        <v>376</v>
+      </c>
+      <c r="C264" t="s">
+        <v>373</v>
+      </c>
+      <c r="D264" t="s">
+        <v>194</v>
+      </c>
+      <c r="E264" t="s">
+        <v>374</v>
+      </c>
+      <c r="F264" s="1">
+        <v>1125223.96</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>377</v>
+      </c>
+      <c r="B265" t="s">
+        <v>376</v>
+      </c>
+      <c r="C265" t="s">
+        <v>373</v>
+      </c>
+      <c r="D265" t="s">
+        <v>194</v>
+      </c>
+      <c r="E265" t="s">
+        <v>374</v>
+      </c>
+      <c r="F265" s="1">
+        <v>1125223.96</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>378</v>
+      </c>
+      <c r="B266" t="s">
+        <v>379</v>
+      </c>
+      <c r="C266" t="s">
+        <v>373</v>
+      </c>
+      <c r="D266" t="s">
+        <v>194</v>
+      </c>
+      <c r="E266" t="s">
+        <v>374</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1125223.96</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>380</v>
+      </c>
+      <c r="B267" t="s">
+        <v>381</v>
+      </c>
+      <c r="C267" t="s">
+        <v>382</v>
+      </c>
+      <c r="D267" t="s">
+        <v>194</v>
+      </c>
+      <c r="E267" t="s">
+        <v>383</v>
+      </c>
+      <c r="F267">
+        <v>302.95600000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>384</v>
+      </c>
+      <c r="B268" t="s">
+        <v>381</v>
+      </c>
+      <c r="C268" t="s">
+        <v>382</v>
+      </c>
+      <c r="D268" t="s">
+        <v>194</v>
+      </c>
+      <c r="E268" t="s">
+        <v>383</v>
+      </c>
+      <c r="F268">
+        <v>302.95600000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>85</v>
+      </c>
+      <c r="C269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D269" t="s">
+        <v>194</v>
+      </c>
+      <c r="E269" t="s">
+        <v>196</v>
+      </c>
+      <c r="F269">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>385</v>
+      </c>
+      <c r="B270" t="s">
+        <v>386</v>
+      </c>
+      <c r="C270" t="s">
+        <v>387</v>
+      </c>
+      <c r="D270" t="s">
+        <v>194</v>
+      </c>
+      <c r="E270" t="s">
+        <v>388</v>
+      </c>
+      <c r="F270" s="1">
+        <v>69368.11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>85</v>
+      </c>
+      <c r="C271" t="s">
+        <v>387</v>
+      </c>
+      <c r="D271" t="s">
+        <v>194</v>
+      </c>
+      <c r="E271" t="s">
+        <v>196</v>
+      </c>
+      <c r="F271">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
+        <v>389</v>
+      </c>
+      <c r="C272" t="s">
+        <v>390</v>
+      </c>
+      <c r="D272" t="s">
+        <v>194</v>
+      </c>
+      <c r="E272" t="s">
+        <v>197</v>
+      </c>
+      <c r="F272">
+        <v>860.08299999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>391</v>
+      </c>
+      <c r="C273" t="s">
+        <v>390</v>
+      </c>
+      <c r="D273" t="s">
+        <v>194</v>
+      </c>
+      <c r="E273" t="s">
+        <v>197</v>
+      </c>
+      <c r="F273">
+        <v>860.08299999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" t="s">
+        <v>391</v>
+      </c>
+      <c r="C274" t="s">
+        <v>390</v>
+      </c>
+      <c r="D274" t="s">
+        <v>194</v>
+      </c>
+      <c r="E274" t="s">
+        <v>197</v>
+      </c>
+      <c r="F274">
+        <v>860.22699999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" t="s">
+        <v>391</v>
+      </c>
+      <c r="C275" t="s">
+        <v>390</v>
+      </c>
+      <c r="D275" t="s">
+        <v>194</v>
+      </c>
+      <c r="E275" t="s">
+        <v>197</v>
+      </c>
+      <c r="F275">
+        <v>860.22699999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>392</v>
+      </c>
+      <c r="C276" t="s">
+        <v>390</v>
+      </c>
+      <c r="D276" t="s">
+        <v>194</v>
+      </c>
+      <c r="E276" t="s">
+        <v>197</v>
+      </c>
+      <c r="F276">
+        <v>860.22699999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>393</v>
+      </c>
+      <c r="C277" t="s">
+        <v>390</v>
+      </c>
+      <c r="D277" t="s">
+        <v>194</v>
+      </c>
+      <c r="E277" t="s">
+        <v>197</v>
+      </c>
+      <c r="F277">
+        <v>860.22699999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278" t="s">
+        <v>395</v>
+      </c>
+      <c r="C278" t="s">
+        <v>396</v>
+      </c>
+      <c r="D278" t="s">
+        <v>194</v>
+      </c>
+      <c r="E278" t="s">
+        <v>397</v>
+      </c>
+      <c r="F278" s="1">
+        <v>1507500</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>85</v>
+      </c>
+      <c r="C279" t="s">
+        <v>396</v>
+      </c>
+      <c r="D279" t="s">
+        <v>194</v>
+      </c>
+      <c r="E279" t="s">
+        <v>196</v>
+      </c>
+      <c r="F279">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" t="s">
+        <v>398</v>
+      </c>
+      <c r="C280" t="s">
+        <v>399</v>
+      </c>
+      <c r="D280" t="s">
+        <v>194</v>
+      </c>
+      <c r="E280" t="s">
+        <v>197</v>
+      </c>
+      <c r="F280">
+        <v>860.00800000000004</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B281" t="s">
+        <v>400</v>
+      </c>
+      <c r="C281" t="s">
+        <v>399</v>
+      </c>
+      <c r="D281" t="s">
+        <v>194</v>
+      </c>
+      <c r="E281" t="s">
+        <v>197</v>
+      </c>
+      <c r="F281">
+        <v>860.00800000000004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" t="s">
+        <v>401</v>
+      </c>
+      <c r="C282" t="s">
+        <v>399</v>
+      </c>
+      <c r="D282" t="s">
+        <v>194</v>
+      </c>
+      <c r="E282" t="s">
+        <v>197</v>
+      </c>
+      <c r="F282">
+        <v>860.00800000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>402</v>
+      </c>
+      <c r="C283" t="s">
+        <v>399</v>
+      </c>
+      <c r="D283" t="s">
+        <v>194</v>
+      </c>
+      <c r="E283" t="s">
+        <v>197</v>
+      </c>
+      <c r="F283">
+        <v>860.01499999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>85</v>
+      </c>
+      <c r="C284" t="s">
+        <v>403</v>
+      </c>
+      <c r="D284" t="s">
+        <v>194</v>
+      </c>
+      <c r="E284" t="s">
+        <v>196</v>
+      </c>
+      <c r="F284">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>404</v>
+      </c>
+      <c r="B285" t="s">
+        <v>405</v>
+      </c>
+      <c r="C285" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" t="s">
+        <v>194</v>
+      </c>
+      <c r="E285" t="s">
+        <v>407</v>
+      </c>
+      <c r="F285" s="1">
+        <v>4149.42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>408</v>
+      </c>
+      <c r="B286" t="s">
+        <v>409</v>
+      </c>
+      <c r="C286" t="s">
+        <v>406</v>
+      </c>
+      <c r="D286" t="s">
+        <v>194</v>
+      </c>
+      <c r="E286" t="s">
+        <v>407</v>
+      </c>
+      <c r="F286" s="1">
+        <v>4149.42</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>410</v>
+      </c>
+      <c r="B287" t="s">
+        <v>409</v>
+      </c>
+      <c r="C287" t="s">
+        <v>406</v>
+      </c>
+      <c r="D287" t="s">
+        <v>194</v>
+      </c>
+      <c r="E287" t="s">
+        <v>407</v>
+      </c>
+      <c r="F287" s="1">
+        <v>4148.74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>411</v>
+      </c>
+      <c r="B288" t="s">
+        <v>412</v>
+      </c>
+      <c r="C288" t="s">
+        <v>406</v>
+      </c>
+      <c r="D288" t="s">
+        <v>194</v>
+      </c>
+      <c r="E288" t="s">
+        <v>407</v>
+      </c>
+      <c r="F288" s="1">
+        <v>4148.74</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>413</v>
+      </c>
+      <c r="B289" t="s">
+        <v>414</v>
+      </c>
+      <c r="C289" t="s">
+        <v>415</v>
+      </c>
+      <c r="D289" t="s">
+        <v>194</v>
+      </c>
+      <c r="E289" t="s">
+        <v>416</v>
+      </c>
+      <c r="F289" s="1">
+        <v>15477.92</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>417</v>
+      </c>
+      <c r="B290" t="s">
+        <v>414</v>
+      </c>
+      <c r="C290" t="s">
+        <v>415</v>
+      </c>
+      <c r="D290" t="s">
+        <v>194</v>
+      </c>
+      <c r="E290" t="s">
+        <v>416</v>
+      </c>
+      <c r="F290" s="1">
+        <v>15467.15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>85</v>
+      </c>
+      <c r="C291" t="s">
+        <v>415</v>
+      </c>
+      <c r="D291" t="s">
+        <v>194</v>
+      </c>
+      <c r="E291" t="s">
+        <v>196</v>
+      </c>
+      <c r="F291">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" t="s">
+        <v>335</v>
+      </c>
+      <c r="C292" t="s">
+        <v>418</v>
+      </c>
+      <c r="D292" t="s">
+        <v>194</v>
+      </c>
+      <c r="E292" t="s">
+        <v>197</v>
+      </c>
+      <c r="F292">
+        <v>860.23099999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s">
+        <v>337</v>
+      </c>
+      <c r="C293" t="s">
+        <v>418</v>
+      </c>
+      <c r="D293" t="s">
+        <v>194</v>
+      </c>
+      <c r="E293" t="s">
+        <v>197</v>
+      </c>
+      <c r="F293">
+        <v>860.23099999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" t="s">
+        <v>337</v>
+      </c>
+      <c r="C294" t="s">
+        <v>418</v>
+      </c>
+      <c r="D294" t="s">
+        <v>194</v>
+      </c>
+      <c r="E294" t="s">
+        <v>197</v>
+      </c>
+      <c r="F294">
+        <v>860.245</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295" t="s">
+        <v>337</v>
+      </c>
+      <c r="C295" t="s">
+        <v>418</v>
+      </c>
+      <c r="D295" t="s">
+        <v>194</v>
+      </c>
+      <c r="E295" t="s">
+        <v>197</v>
+      </c>
+      <c r="F295">
+        <v>860.245</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>17</v>
+      </c>
+      <c r="B296" t="s">
+        <v>338</v>
+      </c>
+      <c r="C296" t="s">
+        <v>418</v>
+      </c>
+      <c r="D296" t="s">
+        <v>194</v>
+      </c>
+      <c r="E296" t="s">
+        <v>197</v>
+      </c>
+      <c r="F296">
+        <v>860.245</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" t="s">
+        <v>339</v>
+      </c>
+      <c r="C297" t="s">
+        <v>418</v>
+      </c>
+      <c r="D297" t="s">
+        <v>194</v>
+      </c>
+      <c r="E297" t="s">
+        <v>197</v>
+      </c>
+      <c r="F297">
+        <v>860.23699999999997</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>419</v>
+      </c>
+      <c r="B298" t="s">
+        <v>420</v>
+      </c>
+      <c r="C298" t="s">
+        <v>421</v>
+      </c>
+      <c r="D298" t="s">
+        <v>194</v>
+      </c>
+      <c r="E298" t="s">
+        <v>422</v>
+      </c>
+      <c r="F298" s="1">
+        <v>34352.74</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>423</v>
+      </c>
+      <c r="B299" t="s">
+        <v>420</v>
+      </c>
+      <c r="C299" t="s">
+        <v>421</v>
+      </c>
+      <c r="D299" t="s">
+        <v>194</v>
+      </c>
+      <c r="E299" t="s">
+        <v>422</v>
+      </c>
+      <c r="F299" s="1">
+        <v>34352.04</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>424</v>
+      </c>
+      <c r="B300" t="s">
+        <v>425</v>
+      </c>
+      <c r="C300" t="s">
+        <v>421</v>
+      </c>
+      <c r="D300" t="s">
+        <v>194</v>
+      </c>
+      <c r="E300" t="s">
+        <v>422</v>
+      </c>
+      <c r="F300" s="1">
+        <v>34352.04</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>426</v>
+      </c>
+      <c r="B301" t="s">
+        <v>427</v>
+      </c>
+      <c r="C301" t="s">
+        <v>428</v>
+      </c>
+      <c r="D301" t="s">
+        <v>194</v>
+      </c>
+      <c r="E301" t="s">
+        <v>196</v>
+      </c>
+      <c r="F301">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>429</v>
+      </c>
+      <c r="B302" t="s">
+        <v>430</v>
+      </c>
+      <c r="C302" t="s">
+        <v>428</v>
+      </c>
+      <c r="D302" t="s">
+        <v>194</v>
+      </c>
+      <c r="E302" t="s">
+        <v>196</v>
+      </c>
+      <c r="F302">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>431</v>
+      </c>
+      <c r="B303" t="s">
+        <v>430</v>
+      </c>
+      <c r="C303" t="s">
+        <v>428</v>
+      </c>
+      <c r="D303" t="s">
+        <v>194</v>
+      </c>
+      <c r="E303" t="s">
+        <v>196</v>
+      </c>
+      <c r="F303">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>432</v>
+      </c>
+      <c r="B304" t="s">
+        <v>433</v>
+      </c>
+      <c r="C304" t="s">
+        <v>434</v>
+      </c>
+      <c r="D304" t="s">
+        <v>194</v>
+      </c>
+      <c r="E304" t="s">
+        <v>435</v>
+      </c>
+      <c r="F304" s="1">
+        <v>16739.560000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" t="s">
+        <v>85</v>
+      </c>
+      <c r="C305" t="s">
+        <v>434</v>
+      </c>
+      <c r="D305" t="s">
+        <v>194</v>
+      </c>
+      <c r="E305" t="s">
+        <v>196</v>
+      </c>
+      <c r="F305">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" t="s">
+        <v>436</v>
+      </c>
+      <c r="C306" t="s">
+        <v>437</v>
+      </c>
+      <c r="D306" t="s">
+        <v>194</v>
+      </c>
+      <c r="E306" t="s">
+        <v>197</v>
+      </c>
+      <c r="F306">
+        <v>860.10500000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" t="s">
+        <v>438</v>
+      </c>
+      <c r="C307" t="s">
+        <v>437</v>
+      </c>
+      <c r="D307" t="s">
+        <v>194</v>
+      </c>
+      <c r="E307" t="s">
+        <v>197</v>
+      </c>
+      <c r="F307">
+        <v>860.10500000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" t="s">
+        <v>438</v>
+      </c>
+      <c r="C308" t="s">
+        <v>437</v>
+      </c>
+      <c r="D308" t="s">
+        <v>194</v>
+      </c>
+      <c r="E308" t="s">
+        <v>197</v>
+      </c>
+      <c r="F308">
+        <v>860.10500000000002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>16</v>
+      </c>
+      <c r="B309" t="s">
+        <v>438</v>
+      </c>
+      <c r="C309" t="s">
+        <v>437</v>
+      </c>
+      <c r="D309" t="s">
+        <v>194</v>
+      </c>
+      <c r="E309" t="s">
+        <v>197</v>
+      </c>
+      <c r="F309">
+        <v>859.822</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>17</v>
+      </c>
+      <c r="B310" t="s">
+        <v>439</v>
+      </c>
+      <c r="C310" t="s">
+        <v>437</v>
+      </c>
+      <c r="D310" t="s">
+        <v>194</v>
+      </c>
+      <c r="E310" t="s">
+        <v>197</v>
+      </c>
+      <c r="F310">
+        <v>859.822</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>440</v>
+      </c>
+      <c r="B311" t="s">
+        <v>441</v>
+      </c>
+      <c r="C311" t="s">
+        <v>442</v>
+      </c>
+      <c r="D311" t="s">
+        <v>194</v>
+      </c>
+      <c r="E311" t="s">
+        <v>443</v>
+      </c>
+      <c r="F311" s="1">
+        <v>2483313.56</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" t="s">
+        <v>85</v>
+      </c>
+      <c r="C312" t="s">
+        <v>442</v>
+      </c>
+      <c r="D312" t="s">
+        <v>194</v>
+      </c>
+      <c r="E312" t="s">
+        <v>196</v>
+      </c>
+      <c r="F312">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" t="s">
+        <v>444</v>
+      </c>
+      <c r="C313" t="s">
+        <v>445</v>
+      </c>
+      <c r="D313" t="s">
+        <v>194</v>
+      </c>
+      <c r="E313" t="s">
+        <v>197</v>
+      </c>
+      <c r="F313">
+        <v>859.74400000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" t="s">
+        <v>446</v>
+      </c>
+      <c r="C314" t="s">
+        <v>445</v>
+      </c>
+      <c r="D314" t="s">
+        <v>194</v>
+      </c>
+      <c r="E314" t="s">
+        <v>197</v>
+      </c>
+      <c r="F314">
+        <v>859.70299999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" t="s">
+        <v>446</v>
+      </c>
+      <c r="C315" t="s">
+        <v>445</v>
+      </c>
+      <c r="D315" t="s">
+        <v>194</v>
+      </c>
+      <c r="E315" t="s">
+        <v>197</v>
+      </c>
+      <c r="F315">
+        <v>859.70299999999997</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" t="s">
+        <v>446</v>
+      </c>
+      <c r="C316" t="s">
+        <v>445</v>
+      </c>
+      <c r="D316" t="s">
+        <v>194</v>
+      </c>
+      <c r="E316" t="s">
+        <v>197</v>
+      </c>
+      <c r="F316">
+        <v>859.70299999999997</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" t="s">
+        <v>447</v>
+      </c>
+      <c r="C317" t="s">
+        <v>445</v>
+      </c>
+      <c r="D317" t="s">
+        <v>194</v>
+      </c>
+      <c r="E317" t="s">
+        <v>197</v>
+      </c>
+      <c r="F317">
+        <v>859.70299999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>448</v>
+      </c>
+      <c r="B318" t="s">
+        <v>449</v>
+      </c>
+      <c r="C318" t="s">
+        <v>450</v>
+      </c>
+      <c r="D318" t="s">
+        <v>194</v>
+      </c>
+      <c r="E318" t="s">
+        <v>451</v>
+      </c>
+      <c r="F318" s="1">
+        <v>9417.35</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>452</v>
+      </c>
+      <c r="B319" t="s">
+        <v>449</v>
+      </c>
+      <c r="C319" t="s">
+        <v>450</v>
+      </c>
+      <c r="D319" t="s">
+        <v>194</v>
+      </c>
+      <c r="E319" t="s">
+        <v>451</v>
+      </c>
+      <c r="F319" s="1">
+        <v>9417.35</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" t="s">
+        <v>85</v>
+      </c>
+      <c r="C320" t="s">
+        <v>450</v>
+      </c>
+      <c r="D320" t="s">
+        <v>194</v>
+      </c>
+      <c r="E320" t="s">
+        <v>196</v>
+      </c>
+      <c r="F320">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>67</v>
+      </c>
+      <c r="B321" t="s">
+        <v>453</v>
+      </c>
+      <c r="C321" t="s">
+        <v>454</v>
+      </c>
+      <c r="D321" t="s">
+        <v>194</v>
+      </c>
+      <c r="E321" t="s">
+        <v>455</v>
+      </c>
+      <c r="F321" s="1">
+        <v>60328.76</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>68</v>
+      </c>
+      <c r="B322" t="s">
+        <v>453</v>
+      </c>
+      <c r="C322" t="s">
+        <v>454</v>
+      </c>
+      <c r="D322" t="s">
+        <v>194</v>
+      </c>
+      <c r="E322" t="s">
+        <v>455</v>
+      </c>
+      <c r="F322" s="1">
+        <v>60328.76</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" t="s">
+        <v>85</v>
+      </c>
+      <c r="C323" t="s">
+        <v>454</v>
+      </c>
+      <c r="D323" t="s">
+        <v>194</v>
+      </c>
+      <c r="E323" t="s">
+        <v>196</v>
+      </c>
+      <c r="F323">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>456</v>
+      </c>
+      <c r="B324" t="s">
+        <v>457</v>
+      </c>
+      <c r="C324" t="s">
+        <v>458</v>
+      </c>
+      <c r="D324" t="s">
+        <v>194</v>
+      </c>
+      <c r="E324" t="s">
+        <v>459</v>
+      </c>
+      <c r="F324" s="1">
+        <v>1555613.21</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" t="s">
+        <v>85</v>
+      </c>
+      <c r="C325" t="s">
+        <v>458</v>
+      </c>
+      <c r="D325" t="s">
+        <v>194</v>
+      </c>
+      <c r="E325" t="s">
+        <v>196</v>
+      </c>
+      <c r="F325">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>460</v>
+      </c>
+      <c r="B326" t="s">
+        <v>461</v>
+      </c>
+      <c r="C326" t="s">
+        <v>462</v>
+      </c>
+      <c r="D326" t="s">
+        <v>194</v>
+      </c>
+      <c r="E326" t="s">
+        <v>463</v>
+      </c>
+      <c r="F326" s="1">
+        <v>15093.3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>464</v>
+      </c>
+      <c r="B327" t="s">
+        <v>461</v>
+      </c>
+      <c r="C327" t="s">
+        <v>462</v>
+      </c>
+      <c r="D327" t="s">
+        <v>194</v>
+      </c>
+      <c r="E327" t="s">
+        <v>463</v>
+      </c>
+      <c r="F327" s="1">
+        <v>15093.61</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>465</v>
+      </c>
+      <c r="B328" t="s">
+        <v>466</v>
+      </c>
+      <c r="C328" t="s">
+        <v>462</v>
+      </c>
+      <c r="D328" t="s">
+        <v>194</v>
+      </c>
+      <c r="E328" t="s">
+        <v>200</v>
+      </c>
+      <c r="F328" s="1">
+        <v>15093.61</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>467</v>
+      </c>
+      <c r="B329" t="s">
+        <v>466</v>
+      </c>
+      <c r="C329" t="s">
+        <v>462</v>
+      </c>
+      <c r="D329" t="s">
+        <v>194</v>
+      </c>
+      <c r="E329" t="s">
+        <v>200</v>
+      </c>
+      <c r="F329" s="1">
+        <v>15093.61</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" t="s">
+        <v>85</v>
+      </c>
+      <c r="C330" t="s">
+        <v>462</v>
+      </c>
+      <c r="D330" t="s">
+        <v>194</v>
+      </c>
+      <c r="E330" t="s">
+        <v>196</v>
+      </c>
+      <c r="F330">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>8</v>
+      </c>
+      <c r="B331" t="s">
+        <v>468</v>
+      </c>
+      <c r="C331" t="s">
+        <v>462</v>
+      </c>
+      <c r="D331" t="s">
+        <v>194</v>
+      </c>
+      <c r="E331" t="s">
+        <v>200</v>
+      </c>
+      <c r="F331" s="1">
+        <v>15095.23</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>469</v>
+      </c>
+      <c r="B332" t="s">
+        <v>470</v>
+      </c>
+      <c r="C332" t="s">
+        <v>471</v>
+      </c>
+      <c r="D332" t="s">
+        <v>194</v>
+      </c>
+      <c r="E332" t="s">
+        <v>472</v>
+      </c>
+      <c r="F332" s="1">
+        <v>116255.25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>473</v>
+      </c>
+      <c r="B333" t="s">
+        <v>470</v>
+      </c>
+      <c r="C333" t="s">
+        <v>471</v>
+      </c>
+      <c r="D333" t="s">
+        <v>194</v>
+      </c>
+      <c r="E333" t="s">
+        <v>472</v>
+      </c>
+      <c r="F333" s="1">
+        <v>116248.74</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>85</v>
+      </c>
+      <c r="C334" t="s">
+        <v>471</v>
+      </c>
+      <c r="D334" t="s">
+        <v>194</v>
+      </c>
+      <c r="E334" t="s">
+        <v>196</v>
+      </c>
+      <c r="F334">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>18</v>
+      </c>
+      <c r="B335" t="s">
+        <v>474</v>
+      </c>
+      <c r="C335" t="s">
+        <v>475</v>
+      </c>
+      <c r="D335" t="s">
+        <v>194</v>
+      </c>
+      <c r="E335" t="s">
+        <v>197</v>
+      </c>
+      <c r="F335">
+        <v>859.49900000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" t="s">
+        <v>476</v>
+      </c>
+      <c r="C336" t="s">
+        <v>475</v>
+      </c>
+      <c r="D336" t="s">
+        <v>194</v>
+      </c>
+      <c r="E336" t="s">
+        <v>197</v>
+      </c>
+      <c r="F336">
+        <v>859.49900000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" t="s">
+        <v>477</v>
+      </c>
+      <c r="C337" t="s">
+        <v>475</v>
+      </c>
+      <c r="D337" t="s">
+        <v>194</v>
+      </c>
+      <c r="E337" t="s">
+        <v>197</v>
+      </c>
+      <c r="F337">
+        <v>859.22</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" t="s">
+        <v>477</v>
+      </c>
+      <c r="C338" t="s">
+        <v>475</v>
+      </c>
+      <c r="D338" t="s">
+        <v>194</v>
+      </c>
+      <c r="E338" t="s">
+        <v>197</v>
+      </c>
+      <c r="F338">
+        <v>859.22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>16</v>
+      </c>
+      <c r="B339" t="s">
+        <v>477</v>
+      </c>
+      <c r="C339" t="s">
+        <v>475</v>
+      </c>
+      <c r="D339" t="s">
+        <v>194</v>
+      </c>
+      <c r="E339" t="s">
+        <v>197</v>
+      </c>
+      <c r="F339">
+        <v>859.22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>17</v>
+      </c>
+      <c r="B340" t="s">
+        <v>478</v>
+      </c>
+      <c r="C340" t="s">
+        <v>475</v>
+      </c>
+      <c r="D340" t="s">
+        <v>194</v>
+      </c>
+      <c r="E340" t="s">
+        <v>197</v>
+      </c>
+      <c r="F340">
+        <v>858.94500000000005</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>479</v>
+      </c>
+      <c r="B341" t="s">
+        <v>480</v>
+      </c>
+      <c r="C341" t="s">
+        <v>481</v>
+      </c>
+      <c r="D341" t="s">
+        <v>194</v>
+      </c>
+      <c r="E341" t="s">
+        <v>196</v>
+      </c>
+      <c r="F341">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>482</v>
+      </c>
+      <c r="B342" t="s">
+        <v>483</v>
+      </c>
+      <c r="C342" t="s">
+        <v>481</v>
+      </c>
+      <c r="D342" t="s">
+        <v>194</v>
+      </c>
+      <c r="E342" t="s">
+        <v>196</v>
+      </c>
+      <c r="F342">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>484</v>
+      </c>
+      <c r="B343" t="s">
+        <v>483</v>
+      </c>
+      <c r="C343" t="s">
+        <v>481</v>
+      </c>
+      <c r="D343" t="s">
+        <v>194</v>
+      </c>
+      <c r="E343" t="s">
+        <v>196</v>
+      </c>
+      <c r="F343">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>485</v>
+      </c>
+      <c r="B344" t="s">
+        <v>486</v>
+      </c>
+      <c r="C344" t="s">
+        <v>487</v>
+      </c>
+      <c r="D344" t="s">
+        <v>194</v>
+      </c>
+      <c r="E344" t="s">
+        <v>488</v>
+      </c>
+      <c r="F344" s="1">
+        <v>31939.19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>489</v>
+      </c>
+      <c r="B345" t="s">
+        <v>486</v>
+      </c>
+      <c r="C345" t="s">
+        <v>487</v>
+      </c>
+      <c r="D345" t="s">
+        <v>194</v>
+      </c>
+      <c r="E345" t="s">
+        <v>488</v>
+      </c>
+      <c r="F345" s="1">
+        <v>31925.84</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" t="s">
+        <v>85</v>
+      </c>
+      <c r="C346" t="s">
+        <v>487</v>
+      </c>
+      <c r="D346" t="s">
+        <v>194</v>
+      </c>
+      <c r="E346" t="s">
+        <v>196</v>
+      </c>
+      <c r="F346">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>490</v>
+      </c>
+      <c r="B347" t="s">
+        <v>491</v>
+      </c>
+      <c r="C347" t="s">
+        <v>492</v>
+      </c>
+      <c r="D347" t="s">
+        <v>194</v>
+      </c>
+      <c r="E347" t="s">
+        <v>493</v>
+      </c>
+      <c r="F347" s="1">
+        <v>563551.19999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1</v>
+      </c>
+      <c r="B348" t="s">
+        <v>85</v>
+      </c>
+      <c r="C348" t="s">
+        <v>492</v>
+      </c>
+      <c r="D348" t="s">
+        <v>194</v>
+      </c>
+      <c r="E348" t="s">
+        <v>196</v>
+      </c>
+      <c r="F348">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>494</v>
+      </c>
+      <c r="B349" t="s">
+        <v>495</v>
+      </c>
+      <c r="C349" t="s">
+        <v>496</v>
+      </c>
+      <c r="D349" t="s">
+        <v>194</v>
+      </c>
+      <c r="E349" t="s">
+        <v>497</v>
+      </c>
+      <c r="F349" s="1">
+        <v>361553.6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>498</v>
+      </c>
+      <c r="B350" t="s">
+        <v>495</v>
+      </c>
+      <c r="C350" t="s">
+        <v>496</v>
+      </c>
+      <c r="D350" t="s">
+        <v>194</v>
+      </c>
+      <c r="E350" t="s">
+        <v>497</v>
+      </c>
+      <c r="F350" s="1">
+        <v>361553.6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>85</v>
+      </c>
+      <c r="C351" t="s">
+        <v>496</v>
+      </c>
+      <c r="D351" t="s">
+        <v>194</v>
+      </c>
+      <c r="E351" t="s">
+        <v>196</v>
+      </c>
+      <c r="F351">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>499</v>
+      </c>
+      <c r="C352" t="s">
+        <v>496</v>
+      </c>
+      <c r="D352" t="s">
+        <v>194</v>
+      </c>
+      <c r="E352" t="s">
+        <v>197</v>
+      </c>
+      <c r="F352">
+        <v>859.10900000000004</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>500</v>
+      </c>
+      <c r="B353" t="s">
+        <v>501</v>
+      </c>
+      <c r="C353" t="s">
+        <v>502</v>
+      </c>
+      <c r="D353" t="s">
+        <v>194</v>
+      </c>
+      <c r="E353" t="s">
+        <v>503</v>
+      </c>
+      <c r="F353" s="1">
+        <v>8341.58</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>504</v>
+      </c>
+      <c r="B354" t="s">
+        <v>505</v>
+      </c>
+      <c r="C354" t="s">
+        <v>502</v>
+      </c>
+      <c r="D354" t="s">
+        <v>194</v>
+      </c>
+      <c r="E354" t="s">
+        <v>503</v>
+      </c>
+      <c r="F354" s="1">
+        <v>8341.58</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>506</v>
+      </c>
+      <c r="B355" t="s">
+        <v>505</v>
+      </c>
+      <c r="C355" t="s">
+        <v>502</v>
+      </c>
+      <c r="D355" t="s">
+        <v>194</v>
+      </c>
+      <c r="E355" t="s">
+        <v>503</v>
+      </c>
+      <c r="F355" s="1">
+        <v>8341.58</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>507</v>
+      </c>
+      <c r="B356" t="s">
+        <v>505</v>
+      </c>
+      <c r="C356" t="s">
+        <v>502</v>
+      </c>
+      <c r="D356" t="s">
+        <v>194</v>
+      </c>
+      <c r="E356" t="s">
+        <v>503</v>
+      </c>
+      <c r="F356" s="1">
+        <v>8342.9699999999993</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357" t="s">
+        <v>501</v>
+      </c>
+      <c r="C357" t="s">
+        <v>502</v>
+      </c>
+      <c r="D357" t="s">
+        <v>194</v>
+      </c>
+      <c r="E357" t="s">
+        <v>503</v>
+      </c>
+      <c r="F357" s="1">
+        <v>8342.9699999999993</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>508</v>
+      </c>
+      <c r="B358" t="s">
+        <v>509</v>
+      </c>
+      <c r="C358" t="s">
+        <v>510</v>
+      </c>
+      <c r="D358" t="s">
+        <v>194</v>
+      </c>
+      <c r="E358" t="s">
+        <v>511</v>
+      </c>
+      <c r="F358">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>512</v>
+      </c>
+      <c r="B359" t="s">
+        <v>509</v>
+      </c>
+      <c r="C359" t="s">
+        <v>510</v>
+      </c>
+      <c r="D359" t="s">
+        <v>194</v>
+      </c>
+      <c r="E359" t="s">
+        <v>511</v>
+      </c>
+      <c r="F359">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" t="s">
+        <v>85</v>
+      </c>
+      <c r="C360" t="s">
+        <v>510</v>
+      </c>
+      <c r="D360" t="s">
+        <v>194</v>
+      </c>
+      <c r="E360" t="s">
+        <v>196</v>
+      </c>
+      <c r="F360">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>513</v>
+      </c>
+      <c r="B361" t="s">
+        <v>514</v>
+      </c>
+      <c r="C361" t="s">
+        <v>515</v>
+      </c>
+      <c r="D361" t="s">
+        <v>194</v>
+      </c>
+      <c r="E361" t="s">
+        <v>516</v>
+      </c>
+      <c r="F361" s="1">
+        <v>123468.2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>517</v>
+      </c>
+      <c r="B362" t="s">
+        <v>514</v>
+      </c>
+      <c r="C362" t="s">
+        <v>515</v>
+      </c>
+      <c r="D362" t="s">
+        <v>194</v>
+      </c>
+      <c r="E362" t="s">
+        <v>516</v>
+      </c>
+      <c r="F362" s="1">
+        <v>123468.2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>518</v>
+      </c>
+      <c r="B363" t="s">
+        <v>519</v>
+      </c>
+      <c r="C363" t="s">
+        <v>515</v>
+      </c>
+      <c r="D363" t="s">
+        <v>194</v>
+      </c>
+      <c r="E363" t="s">
+        <v>516</v>
+      </c>
+      <c r="F363" s="1">
+        <v>123468.2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
+        <v>85</v>
+      </c>
+      <c r="C364" t="s">
+        <v>515</v>
+      </c>
+      <c r="D364" t="s">
+        <v>194</v>
+      </c>
+      <c r="E364" t="s">
+        <v>196</v>
+      </c>
+      <c r="F364">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" t="s">
+        <v>85</v>
+      </c>
+      <c r="C365" t="s">
+        <v>520</v>
+      </c>
+      <c r="D365" t="s">
+        <v>194</v>
+      </c>
+      <c r="E365" t="s">
+        <v>196</v>
+      </c>
+      <c r="F365">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>521</v>
+      </c>
+      <c r="B366" t="s">
+        <v>522</v>
+      </c>
+      <c r="C366" t="s">
+        <v>523</v>
+      </c>
+      <c r="D366" t="s">
+        <v>194</v>
+      </c>
+      <c r="E366" t="s">
+        <v>524</v>
+      </c>
+      <c r="F366" s="1">
+        <v>3279.95</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>525</v>
+      </c>
+      <c r="B367" t="s">
+        <v>522</v>
+      </c>
+      <c r="C367" t="s">
+        <v>523</v>
+      </c>
+      <c r="D367" t="s">
+        <v>194</v>
+      </c>
+      <c r="E367" t="s">
+        <v>524</v>
+      </c>
+      <c r="F367" s="1">
+        <v>3279.95</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" t="s">
+        <v>85</v>
+      </c>
+      <c r="C368" t="s">
+        <v>523</v>
+      </c>
+      <c r="D368" t="s">
+        <v>194</v>
+      </c>
+      <c r="E368" t="s">
+        <v>196</v>
+      </c>
+      <c r="F368">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>479</v>
+      </c>
+      <c r="B369" t="s">
+        <v>526</v>
+      </c>
+      <c r="C369" t="s">
+        <v>523</v>
+      </c>
+      <c r="D369" t="s">
+        <v>194</v>
+      </c>
+      <c r="E369" t="s">
+        <v>196</v>
+      </c>
+      <c r="F369">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>527</v>
+      </c>
+      <c r="B370" t="s">
+        <v>528</v>
+      </c>
+      <c r="C370" t="s">
+        <v>529</v>
+      </c>
+      <c r="D370" t="s">
+        <v>194</v>
+      </c>
+      <c r="E370" t="s">
+        <v>530</v>
+      </c>
+      <c r="F370" s="1">
+        <v>5829936.5499999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>531</v>
+      </c>
+      <c r="B371" t="s">
+        <v>528</v>
+      </c>
+      <c r="C371" t="s">
+        <v>529</v>
+      </c>
+      <c r="D371" t="s">
+        <v>194</v>
+      </c>
+      <c r="E371" t="s">
+        <v>530</v>
+      </c>
+      <c r="F371" s="1">
+        <v>5829936.5499999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" t="s">
+        <v>85</v>
+      </c>
+      <c r="C372" t="s">
+        <v>529</v>
+      </c>
+      <c r="D372" t="s">
+        <v>194</v>
+      </c>
+      <c r="E372" t="s">
+        <v>196</v>
+      </c>
+      <c r="F372">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>532</v>
+      </c>
+      <c r="B373" t="s">
+        <v>533</v>
+      </c>
+      <c r="C373" t="s">
+        <v>534</v>
+      </c>
+      <c r="D373" t="s">
+        <v>194</v>
+      </c>
+      <c r="E373" t="s">
+        <v>535</v>
+      </c>
+      <c r="F373" s="1">
+        <v>3332.43</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>536</v>
+      </c>
+      <c r="B374" t="s">
+        <v>533</v>
+      </c>
+      <c r="C374" t="s">
+        <v>534</v>
+      </c>
+      <c r="D374" t="s">
+        <v>194</v>
+      </c>
+      <c r="E374" t="s">
+        <v>535</v>
+      </c>
+      <c r="F374" s="1">
+        <v>3332.43</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" t="s">
+        <v>85</v>
+      </c>
+      <c r="C375" t="s">
+        <v>534</v>
+      </c>
+      <c r="D375" t="s">
+        <v>194</v>
+      </c>
+      <c r="E375" t="s">
+        <v>196</v>
+      </c>
+      <c r="F375">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" t="s">
+        <v>537</v>
+      </c>
+      <c r="C376" t="s">
+        <v>534</v>
+      </c>
+      <c r="D376" t="s">
+        <v>194</v>
+      </c>
+      <c r="E376" t="s">
+        <v>199</v>
+      </c>
+      <c r="F376">
+        <v>765.32500000000005</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>2</v>
+      </c>
+      <c r="B377" t="s">
+        <v>538</v>
+      </c>
+      <c r="C377" t="s">
+        <v>534</v>
+      </c>
+      <c r="D377" t="s">
+        <v>194</v>
+      </c>
+      <c r="E377" t="s">
+        <v>197</v>
+      </c>
+      <c r="F377">
+        <v>859.35299999999995</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>539</v>
+      </c>
+      <c r="B378" t="s">
+        <v>540</v>
+      </c>
+      <c r="C378" t="s">
+        <v>541</v>
+      </c>
+      <c r="D378" t="s">
+        <v>194</v>
+      </c>
+      <c r="E378" t="s">
+        <v>542</v>
+      </c>
+      <c r="F378" s="1">
+        <v>53891.31</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>543</v>
+      </c>
+      <c r="B379" t="s">
+        <v>540</v>
+      </c>
+      <c r="C379" t="s">
+        <v>541</v>
+      </c>
+      <c r="D379" t="s">
+        <v>194</v>
+      </c>
+      <c r="E379" t="s">
+        <v>542</v>
+      </c>
+      <c r="F379" s="1">
+        <v>53893.21</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>544</v>
+      </c>
+      <c r="B380" t="s">
+        <v>545</v>
+      </c>
+      <c r="C380" t="s">
+        <v>541</v>
+      </c>
+      <c r="D380" t="s">
+        <v>194</v>
+      </c>
+      <c r="E380" t="s">
+        <v>542</v>
+      </c>
+      <c r="F380" s="1">
+        <v>53893.21</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" t="s">
+        <v>85</v>
+      </c>
+      <c r="C381" t="s">
+        <v>541</v>
+      </c>
+      <c r="D381" t="s">
+        <v>194</v>
+      </c>
+      <c r="E381" t="s">
+        <v>196</v>
+      </c>
+      <c r="F381">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>546</v>
+      </c>
+      <c r="B382" t="s">
+        <v>547</v>
+      </c>
+      <c r="C382" t="s">
+        <v>548</v>
+      </c>
+      <c r="D382" t="s">
+        <v>194</v>
+      </c>
+      <c r="E382" t="s">
+        <v>549</v>
+      </c>
+      <c r="F382" s="1">
+        <v>3697.6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>550</v>
+      </c>
+      <c r="B383" t="s">
+        <v>551</v>
+      </c>
+      <c r="C383" t="s">
+        <v>548</v>
+      </c>
+      <c r="D383" t="s">
+        <v>194</v>
+      </c>
+      <c r="E383" t="s">
+        <v>549</v>
+      </c>
+      <c r="F383" s="1">
+        <v>3697.6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>552</v>
+      </c>
+      <c r="B384" t="s">
+        <v>551</v>
+      </c>
+      <c r="C384" t="s">
+        <v>548</v>
+      </c>
+      <c r="D384" t="s">
+        <v>194</v>
+      </c>
+      <c r="E384" t="s">
+        <v>549</v>
+      </c>
+      <c r="F384" s="1">
+        <v>3697.6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" t="s">
+        <v>547</v>
+      </c>
+      <c r="C385" t="s">
+        <v>548</v>
+      </c>
+      <c r="D385" t="s">
+        <v>194</v>
+      </c>
+      <c r="E385" t="s">
+        <v>549</v>
+      </c>
+      <c r="F385" s="1">
+        <v>3697.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>15</v>
+      </c>
+      <c r="B386" t="s">
+        <v>553</v>
+      </c>
+      <c r="C386" t="s">
+        <v>554</v>
+      </c>
+      <c r="D386" t="s">
+        <v>194</v>
+      </c>
+      <c r="E386" t="s">
+        <v>197</v>
+      </c>
+      <c r="F386">
+        <v>859.31100000000004</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" t="s">
+        <v>555</v>
+      </c>
+      <c r="C387" t="s">
+        <v>554</v>
+      </c>
+      <c r="D387" t="s">
+        <v>194</v>
+      </c>
+      <c r="E387" t="s">
+        <v>197</v>
+      </c>
+      <c r="F387">
+        <v>859.31100000000004</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388" t="s">
+        <v>555</v>
+      </c>
+      <c r="C388" t="s">
+        <v>554</v>
+      </c>
+      <c r="D388" t="s">
+        <v>194</v>
+      </c>
+      <c r="E388" t="s">
+        <v>197</v>
+      </c>
+      <c r="F388">
+        <v>859.31100000000004</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>16</v>
+      </c>
+      <c r="B389" t="s">
+        <v>555</v>
+      </c>
+      <c r="C389" t="s">
+        <v>554</v>
+      </c>
+      <c r="D389" t="s">
+        <v>194</v>
+      </c>
+      <c r="E389" t="s">
+        <v>197</v>
+      </c>
+      <c r="F389">
+        <v>859.40499999999997</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>17</v>
+      </c>
+      <c r="B390" t="s">
+        <v>556</v>
+      </c>
+      <c r="C390" t="s">
+        <v>554</v>
+      </c>
+      <c r="D390" t="s">
+        <v>194</v>
+      </c>
+      <c r="E390" t="s">
+        <v>197</v>
+      </c>
+      <c r="F390">
+        <v>859.40499999999997</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>18</v>
+      </c>
+      <c r="B391" t="s">
+        <v>557</v>
+      </c>
+      <c r="C391" t="s">
+        <v>554</v>
+      </c>
+      <c r="D391" t="s">
+        <v>194</v>
+      </c>
+      <c r="E391" t="s">
+        <v>197</v>
+      </c>
+      <c r="F391">
+        <v>859.40499999999997</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392" t="s">
+        <v>85</v>
+      </c>
+      <c r="C392" t="s">
+        <v>558</v>
+      </c>
+      <c r="D392" t="s">
+        <v>194</v>
+      </c>
+      <c r="E392" t="s">
+        <v>196</v>
+      </c>
+      <c r="F392">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>23</v>
+      </c>
+      <c r="B393" t="s">
+        <v>559</v>
+      </c>
+      <c r="C393" t="s">
+        <v>558</v>
+      </c>
+      <c r="D393" t="s">
+        <v>194</v>
+      </c>
+      <c r="E393" t="s">
+        <v>203</v>
+      </c>
+      <c r="F393" s="1">
+        <v>1313.47</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>560</v>
+      </c>
+      <c r="B394" t="s">
+        <v>561</v>
+      </c>
+      <c r="C394" t="s">
+        <v>562</v>
+      </c>
+      <c r="D394" t="s">
+        <v>194</v>
+      </c>
+      <c r="E394" t="s">
+        <v>563</v>
+      </c>
+      <c r="F394" s="1">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>564</v>
+      </c>
+      <c r="B395" t="s">
+        <v>565</v>
+      </c>
+      <c r="C395" t="s">
+        <v>562</v>
+      </c>
+      <c r="D395" t="s">
+        <v>194</v>
+      </c>
+      <c r="E395" t="s">
+        <v>563</v>
+      </c>
+      <c r="F395" s="1">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>566</v>
+      </c>
+      <c r="B396" t="s">
+        <v>565</v>
+      </c>
+      <c r="C396" t="s">
+        <v>562</v>
+      </c>
+      <c r="D396" t="s">
+        <v>194</v>
+      </c>
+      <c r="E396" t="s">
+        <v>563</v>
+      </c>
+      <c r="F396" s="1">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>2</v>
+      </c>
+      <c r="B397" t="s">
+        <v>557</v>
+      </c>
+      <c r="C397" t="s">
+        <v>567</v>
+      </c>
+      <c r="D397" t="s">
+        <v>194</v>
+      </c>
+      <c r="E397" t="s">
+        <v>197</v>
+      </c>
+      <c r="F397">
+        <v>859.41</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" t="s">
+        <v>85</v>
+      </c>
+      <c r="C398" t="s">
+        <v>567</v>
+      </c>
+      <c r="D398" t="s">
+        <v>194</v>
+      </c>
+      <c r="E398" t="s">
+        <v>196</v>
+      </c>
+      <c r="F398">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>568</v>
+      </c>
+      <c r="B399" t="s">
+        <v>569</v>
+      </c>
+      <c r="C399" t="s">
+        <v>570</v>
+      </c>
+      <c r="D399" t="s">
+        <v>194</v>
+      </c>
+      <c r="E399" t="s">
+        <v>571</v>
+      </c>
+      <c r="F399" s="1">
+        <v>3979.28</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>572</v>
+      </c>
+      <c r="B400" t="s">
+        <v>573</v>
+      </c>
+      <c r="C400" t="s">
+        <v>570</v>
+      </c>
+      <c r="D400" t="s">
+        <v>194</v>
+      </c>
+      <c r="E400" t="s">
+        <v>571</v>
+      </c>
+      <c r="F400" s="1">
+        <v>3979.28</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>574</v>
+      </c>
+      <c r="B401" t="s">
+        <v>573</v>
+      </c>
+      <c r="C401" t="s">
+        <v>570</v>
+      </c>
+      <c r="D401" t="s">
+        <v>194</v>
+      </c>
+      <c r="E401" t="s">
+        <v>571</v>
+      </c>
+      <c r="F401" s="1">
+        <v>3979.28</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" t="s">
+        <v>575</v>
+      </c>
+      <c r="C402" t="s">
+        <v>570</v>
+      </c>
+      <c r="D402" t="s">
+        <v>194</v>
+      </c>
+      <c r="E402" t="s">
+        <v>571</v>
+      </c>
+      <c r="F402" s="1">
+        <v>3979.29</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>576</v>
+      </c>
+      <c r="B403" t="s">
+        <v>577</v>
+      </c>
+      <c r="C403" t="s">
+        <v>578</v>
+      </c>
+      <c r="D403" t="s">
+        <v>194</v>
+      </c>
+      <c r="E403" t="s">
+        <v>579</v>
+      </c>
+      <c r="F403" s="1">
+        <v>69961.14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>580</v>
+      </c>
+      <c r="B404" t="s">
+        <v>577</v>
+      </c>
+      <c r="C404" t="s">
+        <v>578</v>
+      </c>
+      <c r="D404" t="s">
+        <v>194</v>
+      </c>
+      <c r="E404" t="s">
+        <v>579</v>
+      </c>
+      <c r="F404" s="1">
+        <v>69926.240000000005</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" t="s">
+        <v>85</v>
+      </c>
+      <c r="C405" t="s">
+        <v>578</v>
+      </c>
+      <c r="D405" t="s">
+        <v>194</v>
+      </c>
+      <c r="E405" t="s">
+        <v>196</v>
+      </c>
+      <c r="F405">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>2</v>
+      </c>
+      <c r="B406" t="s">
+        <v>581</v>
+      </c>
+      <c r="C406" t="s">
+        <v>578</v>
+      </c>
+      <c r="D406" t="s">
+        <v>194</v>
+      </c>
+      <c r="E406" t="s">
+        <v>197</v>
+      </c>
+      <c r="F406">
+        <v>859.32799999999997</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" t="s">
+        <v>582</v>
+      </c>
+      <c r="C407" t="s">
+        <v>578</v>
+      </c>
+      <c r="D407" t="s">
+        <v>194</v>
+      </c>
+      <c r="E407" t="s">
+        <v>199</v>
+      </c>
+      <c r="F407">
+        <v>765.2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>583</v>
+      </c>
+      <c r="B408" t="s">
+        <v>584</v>
+      </c>
+      <c r="C408" t="s">
+        <v>585</v>
+      </c>
+      <c r="D408" t="s">
+        <v>194</v>
+      </c>
+      <c r="E408" t="s">
+        <v>586</v>
+      </c>
+      <c r="F408" s="1">
+        <v>879342.38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1</v>
+      </c>
+      <c r="B409" t="s">
+        <v>85</v>
+      </c>
+      <c r="C409" t="s">
+        <v>585</v>
+      </c>
+      <c r="D409" t="s">
+        <v>194</v>
+      </c>
+      <c r="E409" t="s">
+        <v>196</v>
+      </c>
+      <c r="F409">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>263</v>
+      </c>
+      <c r="B410" t="s">
+        <v>264</v>
+      </c>
+      <c r="C410" t="s">
+        <v>587</v>
+      </c>
+      <c r="D410" t="s">
+        <v>194</v>
+      </c>
+      <c r="E410" t="s">
+        <v>196</v>
+      </c>
+      <c r="F410">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>266</v>
+      </c>
+      <c r="B411" t="s">
+        <v>264</v>
+      </c>
+      <c r="C411" t="s">
+        <v>587</v>
+      </c>
+      <c r="D411" t="s">
+        <v>194</v>
+      </c>
+      <c r="E411" t="s">
+        <v>196</v>
+      </c>
+      <c r="F411">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1</v>
+      </c>
+      <c r="B412" t="s">
+        <v>85</v>
+      </c>
+      <c r="C412" t="s">
+        <v>587</v>
+      </c>
+      <c r="D412" t="s">
+        <v>194</v>
+      </c>
+      <c r="E412" t="s">
+        <v>196</v>
+      </c>
+      <c r="F412">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>588</v>
+      </c>
+      <c r="B413" t="s">
+        <v>589</v>
+      </c>
+      <c r="C413" t="s">
+        <v>590</v>
+      </c>
+      <c r="D413" t="s">
+        <v>194</v>
+      </c>
+      <c r="E413" t="s">
+        <v>591</v>
+      </c>
+      <c r="F413" s="1">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>592</v>
+      </c>
+      <c r="B414" t="s">
+        <v>593</v>
+      </c>
+      <c r="C414" t="s">
+        <v>590</v>
+      </c>
+      <c r="D414" t="s">
+        <v>194</v>
+      </c>
+      <c r="E414" t="s">
+        <v>591</v>
+      </c>
+      <c r="F414" s="1">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>594</v>
+      </c>
+      <c r="B415" t="s">
+        <v>593</v>
+      </c>
+      <c r="C415" t="s">
+        <v>590</v>
+      </c>
+      <c r="D415" t="s">
+        <v>194</v>
+      </c>
+      <c r="E415" t="s">
+        <v>591</v>
+      </c>
+      <c r="F415" s="1">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>490</v>
+      </c>
+      <c r="B416" t="s">
+        <v>595</v>
+      </c>
+      <c r="C416" t="s">
+        <v>596</v>
+      </c>
+      <c r="D416" t="s">
+        <v>194</v>
+      </c>
+      <c r="E416" t="s">
+        <v>493</v>
+      </c>
+      <c r="F416" s="1">
+        <v>563903.82999999996</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1</v>
+      </c>
+      <c r="B417" t="s">
+        <v>85</v>
+      </c>
+      <c r="C417" t="s">
+        <v>596</v>
+      </c>
+      <c r="D417" t="s">
+        <v>194</v>
+      </c>
+      <c r="E417" t="s">
+        <v>196</v>
+      </c>
+      <c r="F417">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>597</v>
+      </c>
+      <c r="B418" t="s">
+        <v>598</v>
+      </c>
+      <c r="C418" t="s">
+        <v>599</v>
+      </c>
+      <c r="D418" t="s">
+        <v>194</v>
+      </c>
+      <c r="E418" t="s">
+        <v>600</v>
+      </c>
+      <c r="F418" s="1">
+        <v>101818.39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>601</v>
+      </c>
+      <c r="B419" t="s">
+        <v>598</v>
+      </c>
+      <c r="C419" t="s">
+        <v>599</v>
+      </c>
+      <c r="D419" t="s">
+        <v>194</v>
+      </c>
+      <c r="E419" t="s">
+        <v>600</v>
+      </c>
+      <c r="F419" s="1">
+        <v>101818.39</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1</v>
+      </c>
+      <c r="B420" t="s">
+        <v>85</v>
+      </c>
+      <c r="C420" t="s">
+        <v>599</v>
+      </c>
+      <c r="D420" t="s">
+        <v>194</v>
+      </c>
+      <c r="E420" t="s">
+        <v>196</v>
+      </c>
+      <c r="F420">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>2</v>
+      </c>
+      <c r="B421" t="s">
+        <v>436</v>
+      </c>
+      <c r="C421" t="s">
+        <v>599</v>
+      </c>
+      <c r="D421" t="s">
+        <v>194</v>
+      </c>
+      <c r="E421" t="s">
+        <v>197</v>
+      </c>
+      <c r="F421">
+        <v>859.69399999999996</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>67</v>
+      </c>
+      <c r="B422" t="s">
+        <v>602</v>
+      </c>
+      <c r="C422" t="s">
+        <v>603</v>
+      </c>
+      <c r="D422" t="s">
+        <v>194</v>
+      </c>
+      <c r="E422" t="s">
+        <v>604</v>
+      </c>
+      <c r="F422" s="1">
+        <v>13686.42</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>68</v>
+      </c>
+      <c r="B423" t="s">
+        <v>602</v>
+      </c>
+      <c r="C423" t="s">
+        <v>603</v>
+      </c>
+      <c r="D423" t="s">
+        <v>194</v>
+      </c>
+      <c r="E423" t="s">
+        <v>604</v>
+      </c>
+      <c r="F423" s="1">
+        <v>13612.54</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1</v>
+      </c>
+      <c r="B424" t="s">
+        <v>85</v>
+      </c>
+      <c r="C424" t="s">
+        <v>603</v>
+      </c>
+      <c r="D424" t="s">
+        <v>194</v>
+      </c>
+      <c r="E424" t="s">
+        <v>196</v>
+      </c>
+      <c r="F424">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>605</v>
+      </c>
+      <c r="B425" t="s">
+        <v>606</v>
+      </c>
+      <c r="C425" t="s">
+        <v>607</v>
+      </c>
+      <c r="D425" t="s">
+        <v>194</v>
+      </c>
+      <c r="E425" t="s">
+        <v>212</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1375.87</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>608</v>
+      </c>
+      <c r="B426" t="s">
+        <v>609</v>
+      </c>
+      <c r="C426" t="s">
+        <v>607</v>
+      </c>
+      <c r="D426" t="s">
+        <v>194</v>
+      </c>
+      <c r="E426" t="s">
+        <v>212</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1375.87</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>44</v>
+      </c>
+      <c r="B427" t="s">
+        <v>610</v>
+      </c>
+      <c r="C427" t="s">
+        <v>607</v>
+      </c>
+      <c r="D427" t="s">
+        <v>194</v>
+      </c>
+      <c r="E427" t="s">
+        <v>212</v>
+      </c>
+      <c r="F427" s="1">
+        <v>1375.79</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>43</v>
+      </c>
+      <c r="B428" t="s">
+        <v>610</v>
+      </c>
+      <c r="C428" t="s">
+        <v>607</v>
+      </c>
+      <c r="D428" t="s">
+        <v>194</v>
+      </c>
+      <c r="E428" t="s">
+        <v>212</v>
+      </c>
+      <c r="F428" s="1">
+        <v>1375.79</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>15</v>
+      </c>
+      <c r="B429" t="s">
+        <v>611</v>
+      </c>
+      <c r="C429" t="s">
+        <v>612</v>
+      </c>
+      <c r="D429" t="s">
+        <v>194</v>
+      </c>
+      <c r="E429" t="s">
+        <v>197</v>
+      </c>
+      <c r="F429">
+        <v>859.76599999999996</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" t="s">
+        <v>438</v>
+      </c>
+      <c r="C430" t="s">
+        <v>612</v>
+      </c>
+      <c r="D430" t="s">
+        <v>194</v>
+      </c>
+      <c r="E430" t="s">
+        <v>197</v>
+      </c>
+      <c r="F430">
+        <v>859.76599999999996</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B431" t="s">
+        <v>438</v>
+      </c>
+      <c r="C431" t="s">
+        <v>612</v>
+      </c>
+      <c r="D431" t="s">
+        <v>194</v>
+      </c>
+      <c r="E431" t="s">
+        <v>197</v>
+      </c>
+      <c r="F431">
+        <v>859.774</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>16</v>
+      </c>
+      <c r="B432" t="s">
+        <v>438</v>
+      </c>
+      <c r="C432" t="s">
+        <v>612</v>
+      </c>
+      <c r="D432" t="s">
+        <v>194</v>
+      </c>
+      <c r="E432" t="s">
+        <v>197</v>
+      </c>
+      <c r="F432">
+        <v>859.774</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>17</v>
+      </c>
+      <c r="B433" t="s">
+        <v>439</v>
+      </c>
+      <c r="C433" t="s">
+        <v>612</v>
+      </c>
+      <c r="D433" t="s">
+        <v>194</v>
+      </c>
+      <c r="E433" t="s">
+        <v>197</v>
+      </c>
+      <c r="F433">
+        <v>859.774</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" t="s">
+        <v>436</v>
+      </c>
+      <c r="C434" t="s">
+        <v>612</v>
+      </c>
+      <c r="D434" t="s">
+        <v>194</v>
+      </c>
+      <c r="E434" t="s">
+        <v>197</v>
+      </c>
+      <c r="F434">
+        <v>859.71500000000003</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>15</v>
+      </c>
+      <c r="B435" t="s">
+        <v>613</v>
+      </c>
+      <c r="C435" t="s">
+        <v>614</v>
+      </c>
+      <c r="D435" t="s">
+        <v>194</v>
+      </c>
+      <c r="E435" t="s">
+        <v>197</v>
+      </c>
+      <c r="F435">
+        <v>859.71500000000003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" t="s">
+        <v>615</v>
+      </c>
+      <c r="C436" t="s">
+        <v>614</v>
+      </c>
+      <c r="D436" t="s">
+        <v>194</v>
+      </c>
+      <c r="E436" t="s">
+        <v>197</v>
+      </c>
+      <c r="F436">
+        <v>859.62400000000002</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>7</v>
+      </c>
+      <c r="B437" t="s">
+        <v>615</v>
+      </c>
+      <c r="C437" t="s">
+        <v>614</v>
+      </c>
+      <c r="D437" t="s">
+        <v>194</v>
+      </c>
+      <c r="E437" t="s">
+        <v>197</v>
+      </c>
+      <c r="F437">
+        <v>859.62400000000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>16</v>
+      </c>
+      <c r="B438" t="s">
+        <v>615</v>
+      </c>
+      <c r="C438" t="s">
+        <v>614</v>
+      </c>
+      <c r="D438" t="s">
+        <v>194</v>
+      </c>
+      <c r="E438" t="s">
+        <v>197</v>
+      </c>
+      <c r="F438">
+        <v>859.62400000000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>17</v>
+      </c>
+      <c r="B439" t="s">
+        <v>616</v>
+      </c>
+      <c r="C439" t="s">
+        <v>614</v>
+      </c>
+      <c r="D439" t="s">
+        <v>194</v>
+      </c>
+      <c r="E439" t="s">
+        <v>197</v>
+      </c>
+      <c r="F439">
+        <v>859.61500000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" t="s">
+        <v>444</v>
+      </c>
+      <c r="C440" t="s">
+        <v>614</v>
+      </c>
+      <c r="D440" t="s">
+        <v>194</v>
+      </c>
+      <c r="E440" t="s">
+        <v>197</v>
+      </c>
+      <c r="F440">
+        <v>859.61500000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>617</v>
+      </c>
+      <c r="B441" t="s">
+        <v>618</v>
+      </c>
+      <c r="C441" t="s">
+        <v>619</v>
+      </c>
+      <c r="D441" t="s">
+        <v>194</v>
+      </c>
+      <c r="E441" t="s">
+        <v>620</v>
+      </c>
+      <c r="F441" s="1">
+        <v>576723.86</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1</v>
+      </c>
+      <c r="B442" t="s">
+        <v>85</v>
+      </c>
+      <c r="C442" t="s">
+        <v>619</v>
+      </c>
+      <c r="D442" t="s">
+        <v>194</v>
+      </c>
+      <c r="E442" t="s">
+        <v>196</v>
+      </c>
+      <c r="F442">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>621</v>
+      </c>
+      <c r="B443" t="s">
+        <v>622</v>
+      </c>
+      <c r="C443" t="s">
+        <v>623</v>
+      </c>
+      <c r="D443" t="s">
+        <v>194</v>
+      </c>
+      <c r="E443" t="s">
+        <v>200</v>
+      </c>
+      <c r="F443" s="1">
+        <v>15033.66</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>467</v>
+      </c>
+      <c r="B444" t="s">
+        <v>624</v>
+      </c>
+      <c r="C444" t="s">
+        <v>623</v>
+      </c>
+      <c r="D444" t="s">
+        <v>194</v>
+      </c>
+      <c r="E444" t="s">
+        <v>200</v>
+      </c>
+      <c r="F444" s="1">
+        <v>15033.66</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>465</v>
+      </c>
+      <c r="B445" t="s">
+        <v>624</v>
+      </c>
+      <c r="C445" t="s">
+        <v>623</v>
+      </c>
+      <c r="D445" t="s">
+        <v>194</v>
+      </c>
+      <c r="E445" t="s">
+        <v>200</v>
+      </c>
+      <c r="F445" s="1">
+        <v>15033.38</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>625</v>
+      </c>
+      <c r="B446" t="s">
+        <v>624</v>
+      </c>
+      <c r="C446" t="s">
+        <v>623</v>
+      </c>
+      <c r="D446" t="s">
+        <v>194</v>
+      </c>
+      <c r="E446" t="s">
+        <v>200</v>
+      </c>
+      <c r="F446" s="1">
+        <v>15033.38</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>15</v>
+      </c>
+      <c r="B447" t="s">
+        <v>626</v>
+      </c>
+      <c r="C447" t="s">
+        <v>627</v>
+      </c>
+      <c r="D447" t="s">
+        <v>194</v>
+      </c>
+      <c r="E447" t="s">
+        <v>197</v>
+      </c>
+      <c r="F447">
+        <v>859.774</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" t="s">
+        <v>446</v>
+      </c>
+      <c r="C448" t="s">
+        <v>627</v>
+      </c>
+      <c r="D448" t="s">
+        <v>194</v>
+      </c>
+      <c r="E448" t="s">
+        <v>197</v>
+      </c>
+      <c r="F448">
+        <v>859.80600000000004</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" t="s">
+        <v>446</v>
+      </c>
+      <c r="C449" t="s">
+        <v>627</v>
+      </c>
+      <c r="D449" t="s">
+        <v>194</v>
+      </c>
+      <c r="E449" t="s">
+        <v>197</v>
+      </c>
+      <c r="F449">
+        <v>859.80600000000004</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>16</v>
+      </c>
+      <c r="B450" t="s">
+        <v>446</v>
+      </c>
+      <c r="C450" t="s">
+        <v>627</v>
+      </c>
+      <c r="D450" t="s">
+        <v>194</v>
+      </c>
+      <c r="E450" t="s">
+        <v>197</v>
+      </c>
+      <c r="F450">
+        <v>859.80600000000004</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>17</v>
+      </c>
+      <c r="B451" t="s">
+        <v>447</v>
+      </c>
+      <c r="C451" t="s">
+        <v>627</v>
+      </c>
+      <c r="D451" t="s">
+        <v>194</v>
+      </c>
+      <c r="E451" t="s">
+        <v>197</v>
+      </c>
+      <c r="F451">
+        <v>859.74</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" t="s">
+        <v>444</v>
+      </c>
+      <c r="C452" t="s">
+        <v>627</v>
+      </c>
+      <c r="D452" t="s">
+        <v>194</v>
+      </c>
+      <c r="E452" t="s">
+        <v>197</v>
+      </c>
+      <c r="F452">
+        <v>859.74</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>628</v>
+      </c>
+      <c r="B453" t="s">
+        <v>629</v>
+      </c>
+      <c r="C453" t="s">
+        <v>630</v>
+      </c>
+      <c r="D453" t="s">
+        <v>194</v>
+      </c>
+      <c r="E453" t="s">
+        <v>631</v>
+      </c>
+      <c r="F453" s="1">
+        <v>162226.25</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>632</v>
+      </c>
+      <c r="B454" t="s">
+        <v>629</v>
+      </c>
+      <c r="C454" t="s">
+        <v>630</v>
+      </c>
+      <c r="D454" t="s">
+        <v>194</v>
+      </c>
+      <c r="E454" t="s">
+        <v>631</v>
+      </c>
+      <c r="F454" s="1">
+        <v>162226.25</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1</v>
+      </c>
+      <c r="B455" t="s">
+        <v>85</v>
+      </c>
+      <c r="C455" t="s">
+        <v>630</v>
+      </c>
+      <c r="D455" t="s">
+        <v>194</v>
+      </c>
+      <c r="E455" t="s">
+        <v>196</v>
+      </c>
+      <c r="F455">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>633</v>
+      </c>
+      <c r="B456" t="s">
+        <v>634</v>
+      </c>
+      <c r="C456" t="s">
+        <v>635</v>
+      </c>
+      <c r="D456" t="s">
+        <v>194</v>
+      </c>
+      <c r="E456" t="s">
+        <v>636</v>
+      </c>
+      <c r="F456" s="1">
+        <v>7454.73</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>637</v>
+      </c>
+      <c r="B457" t="s">
+        <v>634</v>
+      </c>
+      <c r="C457" t="s">
+        <v>635</v>
+      </c>
+      <c r="D457" t="s">
+        <v>194</v>
+      </c>
+      <c r="E457" t="s">
+        <v>636</v>
+      </c>
+      <c r="F457" s="1">
+        <v>7454.73</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1</v>
+      </c>
+      <c r="B458" t="s">
+        <v>85</v>
+      </c>
+      <c r="C458" t="s">
+        <v>635</v>
+      </c>
+      <c r="D458" t="s">
+        <v>194</v>
+      </c>
+      <c r="E458" t="s">
+        <v>196</v>
+      </c>
+      <c r="F458">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>638</v>
+      </c>
+      <c r="B459" t="s">
+        <v>639</v>
+      </c>
+      <c r="C459" t="s">
+        <v>640</v>
+      </c>
+      <c r="D459" t="s">
+        <v>194</v>
+      </c>
+      <c r="E459" t="s">
+        <v>641</v>
+      </c>
+      <c r="F459" s="1">
+        <v>9033.75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>642</v>
+      </c>
+      <c r="B460" t="s">
+        <v>643</v>
+      </c>
+      <c r="C460" t="s">
+        <v>640</v>
+      </c>
+      <c r="D460" t="s">
+        <v>194</v>
+      </c>
+      <c r="E460" t="s">
+        <v>641</v>
+      </c>
+      <c r="F460" s="1">
+        <v>9032.8700000000008</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>644</v>
+      </c>
+      <c r="B461" t="s">
+        <v>643</v>
+      </c>
+      <c r="C461" t="s">
+        <v>640</v>
+      </c>
+      <c r="D461" t="s">
+        <v>194</v>
+      </c>
+      <c r="E461" t="s">
+        <v>641</v>
+      </c>
+      <c r="F461" s="1">
+        <v>9032.8700000000008</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>639</v>
+      </c>
+      <c r="C462" t="s">
+        <v>640</v>
+      </c>
+      <c r="D462" t="s">
+        <v>194</v>
+      </c>
+      <c r="E462" t="s">
+        <v>641</v>
+      </c>
+      <c r="F462" s="1">
+        <v>9032.8700000000008</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>645</v>
+      </c>
+      <c r="B463" t="s">
+        <v>646</v>
+      </c>
+      <c r="C463" t="s">
+        <v>647</v>
+      </c>
+      <c r="D463" t="s">
+        <v>194</v>
+      </c>
+      <c r="E463" t="s">
+        <v>648</v>
+      </c>
+      <c r="F463">
+        <v>973.80499999999995</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>649</v>
+      </c>
+      <c r="B464" t="s">
+        <v>650</v>
+      </c>
+      <c r="C464" t="s">
+        <v>647</v>
+      </c>
+      <c r="D464" t="s">
+        <v>194</v>
+      </c>
+      <c r="E464" t="s">
+        <v>648</v>
+      </c>
+      <c r="F464">
+        <v>973.67600000000004</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>651</v>
+      </c>
+      <c r="B465" t="s">
+        <v>650</v>
+      </c>
+      <c r="C465" t="s">
+        <v>647</v>
+      </c>
+      <c r="D465" t="s">
+        <v>194</v>
+      </c>
+      <c r="E465" t="s">
+        <v>648</v>
+      </c>
+      <c r="F465">
+        <v>973.67600000000004</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>645</v>
+      </c>
+      <c r="B466" t="s">
+        <v>652</v>
+      </c>
+      <c r="C466" t="s">
+        <v>653</v>
+      </c>
+      <c r="D466" t="s">
+        <v>194</v>
+      </c>
+      <c r="E466" t="s">
+        <v>648</v>
+      </c>
+      <c r="F466">
+        <v>973.65700000000004</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>649</v>
+      </c>
+      <c r="B467" t="s">
+        <v>654</v>
+      </c>
+      <c r="C467" t="s">
+        <v>653</v>
+      </c>
+      <c r="D467" t="s">
+        <v>194</v>
+      </c>
+      <c r="E467" t="s">
+        <v>648</v>
+      </c>
+      <c r="F467">
+        <v>973.65700000000004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>651</v>
+      </c>
+      <c r="B468" t="s">
+        <v>654</v>
+      </c>
+      <c r="C468" t="s">
+        <v>653</v>
+      </c>
+      <c r="D468" t="s">
+        <v>194</v>
+      </c>
+      <c r="E468" t="s">
+        <v>648</v>
+      </c>
+      <c r="F468">
+        <v>973.72799999999995</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>655</v>
+      </c>
+      <c r="B469" t="s">
+        <v>656</v>
+      </c>
+      <c r="C469" t="s">
+        <v>657</v>
+      </c>
+      <c r="D469" t="s">
+        <v>194</v>
+      </c>
+      <c r="E469" t="s">
+        <v>658</v>
+      </c>
+      <c r="F469" s="1">
+        <v>30810.75</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>659</v>
+      </c>
+      <c r="B470" t="s">
+        <v>656</v>
+      </c>
+      <c r="C470" t="s">
+        <v>657</v>
+      </c>
+      <c r="D470" t="s">
+        <v>194</v>
+      </c>
+      <c r="E470" t="s">
+        <v>658</v>
+      </c>
+      <c r="F470" s="1">
+        <v>30810.75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1</v>
+      </c>
+      <c r="B471" t="s">
+        <v>85</v>
+      </c>
+      <c r="C471" t="s">
+        <v>657</v>
+      </c>
+      <c r="D471" t="s">
+        <v>194</v>
+      </c>
+      <c r="E471" t="s">
+        <v>196</v>
+      </c>
+      <c r="F471">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>2</v>
+      </c>
+      <c r="B472" t="s">
+        <v>436</v>
+      </c>
+      <c r="C472" t="s">
+        <v>657</v>
+      </c>
+      <c r="D472" t="s">
+        <v>194</v>
+      </c>
+      <c r="E472" t="s">
+        <v>197</v>
+      </c>
+      <c r="F472">
+        <v>859.66099999999994</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>660</v>
+      </c>
+      <c r="C473" t="s">
+        <v>657</v>
+      </c>
+      <c r="D473" t="s">
+        <v>194</v>
+      </c>
+      <c r="E473" t="s">
+        <v>199</v>
+      </c>
+      <c r="F473">
+        <v>765.42600000000004</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>661</v>
+      </c>
+      <c r="B474" t="s">
+        <v>662</v>
+      </c>
+      <c r="C474" t="s">
+        <v>663</v>
+      </c>
+      <c r="D474" t="s">
+        <v>194</v>
+      </c>
+      <c r="E474" t="s">
+        <v>664</v>
+      </c>
+      <c r="F474" s="1">
+        <v>9422.91</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1</v>
+      </c>
+      <c r="B475" t="s">
+        <v>85</v>
+      </c>
+      <c r="C475" t="s">
+        <v>663</v>
+      </c>
+      <c r="D475" t="s">
+        <v>194</v>
+      </c>
+      <c r="E475" t="s">
+        <v>196</v>
+      </c>
+      <c r="F475">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>665</v>
+      </c>
+      <c r="B476" t="s">
+        <v>666</v>
+      </c>
+      <c r="C476" t="s">
+        <v>667</v>
+      </c>
+      <c r="D476" t="s">
+        <v>194</v>
+      </c>
+      <c r="E476" t="s">
+        <v>668</v>
+      </c>
+      <c r="F476" s="1">
+        <v>2283078.2799999998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1</v>
+      </c>
+      <c r="B477" t="s">
+        <v>85</v>
+      </c>
+      <c r="C477" t="s">
+        <v>667</v>
+      </c>
+      <c r="D477" t="s">
+        <v>194</v>
+      </c>
+      <c r="E477" t="s">
+        <v>196</v>
+      </c>
+      <c r="F477">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>669</v>
+      </c>
+      <c r="B478" t="s">
+        <v>670</v>
+      </c>
+      <c r="C478" t="s">
+        <v>671</v>
+      </c>
+      <c r="D478" t="s">
+        <v>194</v>
+      </c>
+      <c r="E478" t="s">
+        <v>672</v>
+      </c>
+      <c r="F478" s="1">
+        <v>32802.269999999997</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>673</v>
+      </c>
+      <c r="B479" t="s">
+        <v>674</v>
+      </c>
+      <c r="C479" t="s">
+        <v>671</v>
+      </c>
+      <c r="D479" t="s">
+        <v>194</v>
+      </c>
+      <c r="E479" t="s">
+        <v>672</v>
+      </c>
+      <c r="F479" s="1">
+        <v>32800.720000000001</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>675</v>
+      </c>
+      <c r="B480" t="s">
+        <v>674</v>
+      </c>
+      <c r="C480" t="s">
+        <v>671</v>
+      </c>
+      <c r="D480" t="s">
+        <v>194</v>
+      </c>
+      <c r="E480" t="s">
+        <v>672</v>
+      </c>
+      <c r="F480" s="1">
+        <v>32800.720000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>676</v>
+      </c>
+      <c r="B481" t="s">
+        <v>677</v>
+      </c>
+      <c r="C481" t="s">
+        <v>671</v>
+      </c>
+      <c r="D481" t="s">
+        <v>194</v>
+      </c>
+      <c r="E481" t="s">
+        <v>672</v>
+      </c>
+      <c r="F481" s="1">
+        <v>32800.720000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>678</v>
+      </c>
+      <c r="B482" t="s">
+        <v>679</v>
+      </c>
+      <c r="C482" t="s">
+        <v>680</v>
+      </c>
+      <c r="D482" t="s">
+        <v>194</v>
+      </c>
+      <c r="E482" t="s">
+        <v>681</v>
+      </c>
+      <c r="F482" s="1">
+        <v>6721.52</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>682</v>
+      </c>
+      <c r="B483" t="s">
+        <v>679</v>
+      </c>
+      <c r="C483" t="s">
+        <v>680</v>
+      </c>
+      <c r="D483" t="s">
+        <v>194</v>
+      </c>
+      <c r="E483" t="s">
+        <v>681</v>
+      </c>
+      <c r="F483" s="1">
+        <v>6721.52</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1</v>
+      </c>
+      <c r="B484" t="s">
+        <v>85</v>
+      </c>
+      <c r="C484" t="s">
+        <v>680</v>
+      </c>
+      <c r="D484" t="s">
+        <v>194</v>
+      </c>
+      <c r="E484" t="s">
+        <v>196</v>
+      </c>
+      <c r="F484">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485" t="s">
+        <v>683</v>
+      </c>
+      <c r="C485" t="s">
+        <v>680</v>
+      </c>
+      <c r="D485" t="s">
+        <v>194</v>
+      </c>
+      <c r="E485" t="s">
+        <v>203</v>
+      </c>
+      <c r="F485" s="1">
+        <v>1313.71</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>684</v>
+      </c>
+      <c r="B486" t="s">
+        <v>685</v>
+      </c>
+      <c r="C486" t="s">
+        <v>686</v>
+      </c>
+      <c r="D486" t="s">
+        <v>194</v>
+      </c>
+      <c r="E486" t="s">
+        <v>687</v>
+      </c>
+      <c r="F486" s="1">
+        <v>2774.75</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>688</v>
+      </c>
+      <c r="B487" t="s">
+        <v>685</v>
+      </c>
+      <c r="C487" t="s">
+        <v>686</v>
+      </c>
+      <c r="D487" t="s">
+        <v>194</v>
+      </c>
+      <c r="E487" t="s">
+        <v>687</v>
+      </c>
+      <c r="F487" s="1">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>2</v>
+      </c>
+      <c r="B488" t="s">
+        <v>689</v>
+      </c>
+      <c r="C488" t="s">
+        <v>686</v>
+      </c>
+      <c r="D488" t="s">
+        <v>194</v>
+      </c>
+      <c r="E488" t="s">
+        <v>197</v>
+      </c>
+      <c r="F488">
+        <v>859.91899999999998</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1</v>
+      </c>
+      <c r="B489" t="s">
+        <v>85</v>
+      </c>
+      <c r="C489" t="s">
+        <v>686</v>
+      </c>
+      <c r="D489" t="s">
+        <v>194</v>
+      </c>
+      <c r="E489" t="s">
+        <v>196</v>
+      </c>
+      <c r="F489">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" t="s">
+        <v>690</v>
+      </c>
+      <c r="C490" t="s">
+        <v>686</v>
+      </c>
+      <c r="D490" t="s">
+        <v>194</v>
+      </c>
+      <c r="E490" t="s">
+        <v>199</v>
+      </c>
+      <c r="F490">
+        <v>765.63800000000003</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>691</v>
+      </c>
+      <c r="B491" t="s">
+        <v>692</v>
+      </c>
+      <c r="C491" t="s">
+        <v>693</v>
+      </c>
+      <c r="D491" t="s">
+        <v>194</v>
+      </c>
+      <c r="E491" t="s">
+        <v>694</v>
+      </c>
+      <c r="F491" s="1">
+        <v>6448.21</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>695</v>
+      </c>
+      <c r="B492" t="s">
+        <v>696</v>
+      </c>
+      <c r="C492" t="s">
+        <v>693</v>
+      </c>
+      <c r="D492" t="s">
+        <v>194</v>
+      </c>
+      <c r="E492" t="s">
+        <v>694</v>
+      </c>
+      <c r="F492" s="1">
+        <v>6448.21</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>697</v>
+      </c>
+      <c r="B493" t="s">
+        <v>696</v>
+      </c>
+      <c r="C493" t="s">
+        <v>693</v>
+      </c>
+      <c r="D493" t="s">
+        <v>194</v>
+      </c>
+      <c r="E493" t="s">
+        <v>694</v>
+      </c>
+      <c r="F493" s="1">
+        <v>6448.21</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1</v>
+      </c>
+      <c r="B494" t="s">
+        <v>85</v>
+      </c>
+      <c r="C494" t="s">
+        <v>698</v>
+      </c>
+      <c r="D494" t="s">
+        <v>194</v>
+      </c>
+      <c r="E494" t="s">
+        <v>196</v>
+      </c>
+      <c r="F494">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>699</v>
+      </c>
+      <c r="B495" t="s">
+        <v>700</v>
+      </c>
+      <c r="C495" t="s">
+        <v>701</v>
+      </c>
+      <c r="D495" t="s">
+        <v>194</v>
+      </c>
+      <c r="E495" t="s">
+        <v>702</v>
+      </c>
+      <c r="F495" s="1">
+        <v>3779232.22</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1</v>
+      </c>
+      <c r="B496" t="s">
+        <v>85</v>
+      </c>
+      <c r="C496" t="s">
+        <v>701</v>
+      </c>
+      <c r="D496" t="s">
+        <v>194</v>
+      </c>
+      <c r="E496" t="s">
+        <v>196</v>
+      </c>
+      <c r="F496">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>703</v>
+      </c>
+      <c r="B497" t="s">
+        <v>704</v>
+      </c>
+      <c r="C497" t="s">
+        <v>705</v>
+      </c>
+      <c r="D497" t="s">
+        <v>194</v>
+      </c>
+      <c r="E497" t="s">
+        <v>706</v>
+      </c>
+      <c r="F497" s="1">
+        <v>28256.16</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>2</v>
+      </c>
+      <c r="B498" t="s">
+        <v>393</v>
+      </c>
+      <c r="C498" t="s">
+        <v>705</v>
+      </c>
+      <c r="D498" t="s">
+        <v>194</v>
+      </c>
+      <c r="E498" t="s">
+        <v>197</v>
+      </c>
+      <c r="F498">
+        <v>860.07600000000002</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>6</v>
+      </c>
+      <c r="B499" t="s">
+        <v>391</v>
+      </c>
+      <c r="C499" t="s">
+        <v>705</v>
+      </c>
+      <c r="D499" t="s">
+        <v>194</v>
+      </c>
+      <c r="E499" t="s">
+        <v>197</v>
+      </c>
+      <c r="F499">
+        <v>860.07600000000002</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" t="s">
+        <v>391</v>
+      </c>
+      <c r="C500" t="s">
+        <v>705</v>
+      </c>
+      <c r="D500" t="s">
+        <v>194</v>
+      </c>
+      <c r="E500" t="s">
+        <v>197</v>
+      </c>
+      <c r="F500">
+        <v>860.07600000000002</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1</v>
+      </c>
+      <c r="B501" t="s">
+        <v>85</v>
+      </c>
+      <c r="C501" t="s">
+        <v>705</v>
+      </c>
+      <c r="D501" t="s">
+        <v>194</v>
+      </c>
+      <c r="E501" t="s">
+        <v>196</v>
+      </c>
+      <c r="F501">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>707</v>
+      </c>
+      <c r="B502" t="s">
+        <v>85</v>
+      </c>
+      <c r="C502" t="s">
+        <v>708</v>
+      </c>
+      <c r="D502" t="s">
+        <v>194</v>
+      </c>
+      <c r="E502" t="s">
+        <v>196</v>
+      </c>
+      <c r="F502">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>23</v>
+      </c>
+      <c r="B503" t="s">
+        <v>709</v>
+      </c>
+      <c r="C503" t="s">
+        <v>708</v>
+      </c>
+      <c r="D503" t="s">
+        <v>194</v>
+      </c>
+      <c r="E503" t="s">
+        <v>203</v>
+      </c>
+      <c r="F503" s="1">
+        <v>1314.07</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>710</v>
+      </c>
+      <c r="B504" t="s">
+        <v>711</v>
+      </c>
+      <c r="C504" t="s">
+        <v>712</v>
+      </c>
+      <c r="D504" t="s">
+        <v>194</v>
+      </c>
+      <c r="E504" t="s">
+        <v>196</v>
+      </c>
+      <c r="F504">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>713</v>
+      </c>
+      <c r="B505" t="s">
+        <v>711</v>
+      </c>
+      <c r="C505" t="s">
+        <v>712</v>
+      </c>
+      <c r="D505" t="s">
+        <v>194</v>
+      </c>
+      <c r="E505" t="s">
+        <v>196</v>
+      </c>
+      <c r="F505">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1</v>
+      </c>
+      <c r="B506" t="s">
+        <v>85</v>
+      </c>
+      <c r="C506" t="s">
+        <v>712</v>
+      </c>
+      <c r="D506" t="s">
+        <v>194</v>
+      </c>
+      <c r="E506" t="s">
+        <v>196</v>
+      </c>
+      <c r="F506">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>714</v>
+      </c>
+      <c r="B507" t="s">
+        <v>715</v>
+      </c>
+      <c r="C507" t="s">
+        <v>716</v>
+      </c>
+      <c r="D507" t="s">
+        <v>194</v>
+      </c>
+      <c r="E507" t="s">
+        <v>717</v>
+      </c>
+      <c r="F507" s="1">
+        <v>7862011.6600000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1</v>
+      </c>
+      <c r="B508" t="s">
+        <v>85</v>
+      </c>
+      <c r="C508" t="s">
+        <v>716</v>
+      </c>
+      <c r="D508" t="s">
+        <v>194</v>
+      </c>
+      <c r="E508" t="s">
+        <v>196</v>
+      </c>
+      <c r="F508">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509" t="s">
+        <v>85</v>
+      </c>
+      <c r="C509" t="s">
+        <v>718</v>
+      </c>
+      <c r="D509" t="s">
+        <v>194</v>
+      </c>
+      <c r="E509" t="s">
+        <v>196</v>
+      </c>
+      <c r="F509">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1</v>
+      </c>
+      <c r="B510" t="s">
+        <v>85</v>
+      </c>
+      <c r="C510" t="s">
+        <v>719</v>
+      </c>
+      <c r="D510" t="s">
+        <v>194</v>
+      </c>
+      <c r="E510" t="s">
+        <v>196</v>
+      </c>
+      <c r="F510">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1</v>
+      </c>
+      <c r="B511" t="s">
+        <v>85</v>
+      </c>
+      <c r="C511" t="s">
+        <v>720</v>
+      </c>
+      <c r="D511" t="s">
+        <v>194</v>
+      </c>
+      <c r="E511" t="s">
+        <v>196</v>
+      </c>
+      <c r="F511">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1</v>
+      </c>
+      <c r="B512" t="s">
+        <v>85</v>
+      </c>
+      <c r="C512" t="s">
+        <v>723</v>
+      </c>
+      <c r="D512" t="s">
+        <v>194</v>
+      </c>
+      <c r="E512" t="s">
+        <v>196</v>
+      </c>
+      <c r="F512">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>8</v>
+      </c>
+      <c r="B513" t="s">
+        <v>721</v>
+      </c>
+      <c r="C513" t="s">
+        <v>723</v>
+      </c>
+      <c r="D513" t="s">
+        <v>194</v>
+      </c>
+      <c r="E513" t="s">
+        <v>200</v>
+      </c>
+      <c r="F513" s="1">
+        <v>15052.86</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1</v>
+      </c>
+      <c r="B514" t="s">
+        <v>85</v>
+      </c>
+      <c r="C514" t="s">
+        <v>724</v>
+      </c>
+      <c r="D514" t="s">
+        <v>194</v>
+      </c>
+      <c r="E514" t="s">
+        <v>196</v>
+      </c>
+      <c r="F514">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>8</v>
+      </c>
+      <c r="B515" t="s">
+        <v>722</v>
+      </c>
+      <c r="C515" t="s">
+        <v>724</v>
+      </c>
+      <c r="D515" t="s">
+        <v>194</v>
+      </c>
+      <c r="E515" t="s">
+        <v>200</v>
+      </c>
+      <c r="F515" s="1">
+        <v>15052.86</v>
       </c>
     </row>
   </sheetData>
